--- a/lab5/xlsx4.xlsx
+++ b/lab5/xlsx4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919865F7-FE23-4C19-9E04-DE98E2CC4843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6130ABB-DA9F-4CCD-8325-BE02B55B51BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -979,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1087,6 +1087,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,21 +1184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5794,7 +5793,7 @@
                 </c:tx>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Wykresy!$N$4:$N$102</c15:sqref>
@@ -6106,7 +6105,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Wykresy!$O$4:$O$102</c15:sqref>
@@ -6417,7 +6416,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000014-1ACD-40FF-925E-46AA4C981AE5}"/>
                   </c:ext>
@@ -6442,7 +6441,7 @@
                 </c:spPr>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Wykresy!$J$4:$J$63</c15:sqref>
@@ -6484,7 +6483,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Wykresy!$K$4:$K$63</c15:sqref>
@@ -6525,7 +6524,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000016-1ACD-40FF-925E-46AA4C981AE5}"/>
                   </c:ext>
@@ -6550,7 +6549,7 @@
                 </c:spPr>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Wykresy!$P$4:$P$102</c15:sqref>
@@ -6640,7 +6639,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Wykresy!$Q$4:$Q$102</c15:sqref>
@@ -6729,7 +6728,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000017-1ACD-40FF-925E-46AA4C981AE5}"/>
                   </c:ext>
@@ -6769,7 +6768,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Wykresy!$L$4:$L$63</c15:sqref>
@@ -6811,7 +6810,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Wykresy!$M$4:$M$63</c15:sqref>
@@ -6852,7 +6851,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-1ACD-40FF-925E-46AA4C981AE5}"/>
                   </c:ext>
@@ -6892,7 +6891,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Wykresy!$R$4:$R$102</c15:sqref>
@@ -7075,7 +7074,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Wykresy!$S$4:$S$102</c15:sqref>
@@ -7257,7 +7256,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-1ACD-40FF-925E-46AA4C981AE5}"/>
                   </c:ext>
@@ -8974,7 +8973,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-A111-4F38-89AB-A53AC365B455}"/>
                   </c:ext>
@@ -9010,7 +9009,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Wykresy!$D$4:$D$63</c15:sqref>
@@ -9067,7 +9066,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Wykresy!$E$4:$E$63</c15:sqref>
@@ -9123,7 +9122,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-A111-4F38-89AB-A53AC365B455}"/>
                   </c:ext>
@@ -9327,7 +9326,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-A111-4F38-89AB-A53AC365B455}"/>
                   </c:ext>
@@ -9367,7 +9366,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Wykresy!$F$4:$F$63</c15:sqref>
@@ -9457,7 +9456,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Wykresy!$G$4:$G$63</c15:sqref>
@@ -9546,7 +9545,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-A111-4F38-89AB-A53AC365B455}"/>
                   </c:ext>
@@ -9951,7 +9950,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-A111-4F38-89AB-A53AC365B455}"/>
                   </c:ext>
@@ -12061,7 +12060,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-A703-445B-AFAE-66EB29B08043}"/>
                   </c:ext>
@@ -12097,7 +12096,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Wykresy!$D$4:$D$63</c15:sqref>
@@ -12154,7 +12153,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Wykresy!$E$4:$E$63</c15:sqref>
@@ -12210,7 +12209,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-A703-445B-AFAE-66EB29B08043}"/>
                   </c:ext>
@@ -12318,7 +12317,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-A703-445B-AFAE-66EB29B08043}"/>
                   </c:ext>
@@ -12358,7 +12357,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Wykresy!$F$4:$F$63</c15:sqref>
@@ -12448,7 +12447,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Wykresy!$G$4:$G$63</c15:sqref>
@@ -12537,7 +12536,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-A703-445B-AFAE-66EB29B08043}"/>
                   </c:ext>
@@ -12660,7 +12659,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-A703-445B-AFAE-66EB29B08043}"/>
                   </c:ext>
@@ -13004,6 +13003,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>nie przyjety</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
@@ -13447,6 +13449,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>przyjety</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:noFill/>
@@ -14331,304 +14336,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>30.967589679043428</c:v>
+                  <c:v>45.849269918429719</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0252779525907272</c:v>
+                  <c:v>22.461949216520278</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0252779525907272</c:v>
+                  <c:v>22.461949216520278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.926473673169703</c:v>
+                  <c:v>34.558839234749307</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.486154814348637</c:v>
+                  <c:v>31.333001896554897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7454373820012563</c:v>
+                  <c:v>24.074867885617479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4450388084749193</c:v>
+                  <c:v>20.042571212874478</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.506712817285496</c:v>
+                  <c:v>36.978217238395104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.98814768198028</c:v>
+                  <c:v>51.494485260269933</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5849590937696547</c:v>
+                  <c:v>19.236111878325872</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.407908537864486</c:v>
+                  <c:v>49.075107256624122</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45.58894482903294</c:v>
+                  <c:v>59.559078605755943</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45.58894482903294</c:v>
+                  <c:v>59.559078605755943</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55.909901405496115</c:v>
+                  <c:v>69.236590620339157</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.4355989091671972</c:v>
+                  <c:v>13.590896536485673</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49.889343402559263</c:v>
+                  <c:v>63.591375278498951</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.247430249632892</c:v>
+                  <c:v>44.236351249332515</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>55.049821690790857</c:v>
+                  <c:v>68.430131285790566</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42.148625970211874</c:v>
+                  <c:v>56.333241267561533</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33.547828823159222</c:v>
+                  <c:v>48.268647922075523</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>61.070379693727716</c:v>
+                  <c:v>74.075346627630779</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>34.407908537864486</c:v>
+                  <c:v>49.075107256624122</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.226872246696033</c:v>
+                  <c:v>38.591135907492308</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>57.630060834906651</c:v>
+                  <c:v>70.849509289436369</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43.008705684917139</c:v>
+                  <c:v>57.139700602110139</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.786553387874967</c:v>
+                  <c:v>35.365298569297899</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-6.0158380532829909</c:v>
+                  <c:v>11.171518532839864</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24.947031676106562</c:v>
+                  <c:v>40.204054576589513</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.045835955527579</c:v>
+                  <c:v>28.107164558360491</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>38.708307111390809</c:v>
+                  <c:v>53.107403929367138</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.4655968114117854</c:v>
+                  <c:v>25.687786554714684</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42.148625970211874</c:v>
+                  <c:v>56.333241267561533</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>36.98814768198028</c:v>
+                  <c:v>51.494485260269933</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.7154394797566681</c:v>
+                  <c:v>15.203815205582867</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>55.909901405496115</c:v>
+                  <c:v>69.236590620339157</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>48.169183973148733</c:v>
+                  <c:v>61.978456609401746</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>18.926473673169703</c:v>
+                  <c:v>34.558839234749307</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>57.630060834906651</c:v>
+                  <c:v>70.849509289436369</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>15.486154814348637</c:v>
+                  <c:v>31.333001896554897</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>49.889343402559263</c:v>
+                  <c:v>63.591375278498951</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>60.210299979022452</c:v>
+                  <c:v>73.268887293082173</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.1651982378854626</c:v>
+                  <c:v>21.655489881971679</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.86479966435912559</c:v>
+                  <c:v>17.623193209228678</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>48.169183973148733</c:v>
+                  <c:v>61.978456609401746</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41.28854625550661</c:v>
+                  <c:v>55.526781933012934</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43.868785399622404</c:v>
+                  <c:v>57.946159936658745</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>53.329662261380321</c:v>
+                  <c:v>66.817212616693354</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>39.568386826096081</c:v>
+                  <c:v>53.913863263915736</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.506712817285496</c:v>
+                  <c:v>36.978217238395104</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14.626075099643373</c:v>
+                  <c:v>30.526542562006291</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.0252779525907272</c:v>
+                  <c:v>22.461949216520278</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>28.387350534927627</c:v>
+                  <c:v>43.429891914783916</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51.609502831969792</c:v>
+                  <c:v>65.204293947596156</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>31.827669393748685</c:v>
+                  <c:v>46.655729252978325</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12.905915670232844</c:v>
+                  <c:v>28.91362389290909</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>36.128067967275015</c:v>
+                  <c:v>50.688025925721327</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>45.58894482903294</c:v>
+                  <c:v>59.559078605755943</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>49.029263687853998</c:v>
+                  <c:v>62.784915943950345</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>36.128067967275015</c:v>
+                  <c:v>50.688025925721327</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>40.428466540801345</c:v>
+                  <c:v>54.720322598464335</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>49.029263687853998</c:v>
+                  <c:v>62.784915943950345</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>47.309104258443462</c:v>
+                  <c:v>61.171997274853155</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-2.5755191944619327</c:v>
+                  <c:v>14.39735587103427</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-3.4355989091671972</c:v>
+                  <c:v>13.590896536485673</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-1.7154394797566681</c:v>
+                  <c:v>15.203815205582867</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>33.547828823159222</c:v>
+                  <c:v>48.268647922075523</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>50.749423117264527</c:v>
+                  <c:v>64.397834613047564</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.85535976505140354</c:v>
+                  <c:v>16.010274540131466</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>24.086951961401297</c:v>
+                  <c:v>39.397595242040914</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-3.4355989091671972</c:v>
+                  <c:v>13.590896536485673</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>36.128067967275015</c:v>
+                  <c:v>50.688025925721327</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>48.169183973148733</c:v>
+                  <c:v>61.978456609401746</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>13.765995384938108</c:v>
+                  <c:v>29.720083227457696</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>53.329662261380321</c:v>
+                  <c:v>66.817212616693354</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>29.247430249632892</c:v>
+                  <c:v>44.236351249332515</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>49.889343402559263</c:v>
+                  <c:v>63.591375278498951</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.32567652611705</c:v>
+                  <c:v>26.49424588926329</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.6055170967065209</c:v>
+                  <c:v>24.881327220166085</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>13.765995384938108</c:v>
+                  <c:v>29.720083227457696</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>61.930459408432981</c:v>
+                  <c:v>74.881805962179371</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>29.247430249632892</c:v>
+                  <c:v>44.236351249332515</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>35.267988252569751</c:v>
+                  <c:v>49.881566591172728</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.7199496538610219E-3</c:v>
+                  <c:v>16.816733874680061</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>24.086951961401297</c:v>
+                  <c:v>39.397595242040914</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>41.28854625550661</c:v>
+                  <c:v>55.526781933012934</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>12.905915670232844</c:v>
+                  <c:v>28.91362389290909</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>36.98814768198028</c:v>
+                  <c:v>51.494485260269933</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.7248793790643902</c:v>
+                  <c:v>18.429652543777273</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>11.185756240822315</c:v>
+                  <c:v>27.300705223811885</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.7199496538610219E-3</c:v>
+                  <c:v>16.816733874680061</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.4655968114117854</c:v>
+                  <c:v>25.687786554714684</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-4.2956786238724618</c:v>
+                  <c:v>12.78443720193706</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43.008705684917139</c:v>
+                  <c:v>57.139700602110139</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>47.309104258443462</c:v>
+                  <c:v>61.171997274853155</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>31.827669393748685</c:v>
+                  <c:v>46.655729252978325</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>40.428466540801345</c:v>
+                  <c:v>54.720322598464335</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>50.749423117264527</c:v>
+                  <c:v>64.397834613047564</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>35.267988252569751</c:v>
+                  <c:v>49.881566591172728</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.4655968114117854</c:v>
+                  <c:v>25.687786554714684</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>16.346234529053909</c:v>
+                  <c:v>32.139461231103496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16755,15 +16760,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>198783</xdr:colOff>
+      <xdr:colOff>6627</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>89452</xdr:rowOff>
+      <xdr:rowOff>9939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>503583</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
+      <xdr:colOff>311427</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>155713</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17102,49 +17107,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="58" t="s">
+      <c r="C1" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="64" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="60" t="s">
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="63"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="66"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="59"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
@@ -17204,7 +17209,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="53">
+      <c r="A3" s="62">
         <v>0.05</v>
       </c>
       <c r="B3" s="38">
@@ -17279,7 +17284,7 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="54"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="39">
         <v>2</v>
       </c>
@@ -17351,7 +17356,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="54"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="39">
         <v>3</v>
       </c>
@@ -17423,7 +17428,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="54"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="39">
         <v>4</v>
       </c>
@@ -17495,7 +17500,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="54"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="39">
         <v>5</v>
       </c>
@@ -17567,7 +17572,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="54"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="39">
         <v>6</v>
       </c>
@@ -17639,7 +17644,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="39">
         <v>7</v>
       </c>
@@ -17711,7 +17716,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="54"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="39">
         <v>8</v>
       </c>
@@ -17783,7 +17788,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="54"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="39">
         <v>9</v>
       </c>
@@ -17855,7 +17860,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="54"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="39">
         <v>10</v>
       </c>
@@ -17927,7 +17932,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="54"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="39">
         <v>11</v>
       </c>
@@ -17999,7 +18004,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="54"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="39">
         <v>12</v>
       </c>
@@ -18071,7 +18076,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="54"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="39">
         <v>13</v>
       </c>
@@ -18143,7 +18148,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="54"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="39">
         <v>14</v>
       </c>
@@ -18215,7 +18220,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="54"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="39">
         <v>15</v>
       </c>
@@ -18287,7 +18292,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="39">
         <v>16</v>
       </c>
@@ -18359,7 +18364,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="54"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="39">
         <v>17</v>
       </c>
@@ -18431,7 +18436,7 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="54"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="39">
         <v>18</v>
       </c>
@@ -18503,7 +18508,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="54"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="39">
         <v>19</v>
       </c>
@@ -18575,7 +18580,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="54"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="39">
         <v>20</v>
       </c>
@@ -18647,7 +18652,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="54"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="39">
         <v>21</v>
       </c>
@@ -18719,7 +18724,7 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="54"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="39">
         <v>22</v>
       </c>
@@ -18791,7 +18796,7 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="54"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="39">
         <v>23</v>
       </c>
@@ -18863,7 +18868,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="54"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="39">
         <v>24</v>
       </c>
@@ -18935,7 +18940,7 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="54"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="39">
         <v>25</v>
       </c>
@@ -19007,7 +19012,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="54"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="39">
         <v>26</v>
       </c>
@@ -19079,7 +19084,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="54"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="39">
         <v>27</v>
       </c>
@@ -19151,7 +19156,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="54"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="39">
         <v>28</v>
       </c>
@@ -19223,7 +19228,7 @@
       </c>
     </row>
     <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="54"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="39">
         <v>29</v>
       </c>
@@ -19295,7 +19300,7 @@
       </c>
     </row>
     <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="54"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="39">
         <v>30</v>
       </c>
@@ -19367,7 +19372,7 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="54"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="39">
         <v>31</v>
       </c>
@@ -19439,7 +19444,7 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="54"/>
+      <c r="A34" s="63"/>
       <c r="B34" s="39">
         <v>32</v>
       </c>
@@ -19511,7 +19516,7 @@
       </c>
     </row>
     <row r="35" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="54"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="39">
         <v>33</v>
       </c>
@@ -19583,7 +19588,7 @@
       </c>
     </row>
     <row r="36" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="54"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="39">
         <v>34</v>
       </c>
@@ -19655,7 +19660,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="54"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="39">
         <v>35</v>
       </c>
@@ -19727,7 +19732,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="54"/>
+      <c r="A38" s="63"/>
       <c r="B38" s="39">
         <v>36</v>
       </c>
@@ -19799,7 +19804,7 @@
       </c>
     </row>
     <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="54"/>
+      <c r="A39" s="63"/>
       <c r="B39" s="39">
         <v>37</v>
       </c>
@@ -19871,7 +19876,7 @@
       </c>
     </row>
     <row r="40" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="54"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="39">
         <v>38</v>
       </c>
@@ -19943,7 +19948,7 @@
       </c>
     </row>
     <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="54"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="39">
         <v>39</v>
       </c>
@@ -20015,7 +20020,7 @@
       </c>
     </row>
     <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="54"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="39">
         <v>40</v>
       </c>
@@ -20087,7 +20092,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="54"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="39">
         <v>41</v>
       </c>
@@ -20159,7 +20164,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="54"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="39">
         <v>42</v>
       </c>
@@ -20231,7 +20236,7 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="54"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="39">
         <v>43</v>
       </c>
@@ -20303,7 +20308,7 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="54"/>
+      <c r="A46" s="63"/>
       <c r="B46" s="39">
         <v>44</v>
       </c>
@@ -20375,7 +20380,7 @@
       </c>
     </row>
     <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="54"/>
+      <c r="A47" s="63"/>
       <c r="B47" s="39">
         <v>45</v>
       </c>
@@ -20447,7 +20452,7 @@
       </c>
     </row>
     <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="54"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="39">
         <v>46</v>
       </c>
@@ -20519,7 +20524,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="54"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="39">
         <v>47</v>
       </c>
@@ -20591,7 +20596,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="54"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="39">
         <v>48</v>
       </c>
@@ -20663,7 +20668,7 @@
       </c>
     </row>
     <row r="51" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="54"/>
+      <c r="A51" s="63"/>
       <c r="B51" s="39">
         <v>49</v>
       </c>
@@ -20735,7 +20740,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="54"/>
+      <c r="A52" s="63"/>
       <c r="B52" s="39">
         <v>50</v>
       </c>
@@ -20807,7 +20812,7 @@
       </c>
     </row>
     <row r="53" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="54"/>
+      <c r="A53" s="63"/>
       <c r="B53" s="39">
         <v>51</v>
       </c>
@@ -20879,7 +20884,7 @@
       </c>
     </row>
     <row r="54" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="54"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="39">
         <v>52</v>
       </c>
@@ -20951,7 +20956,7 @@
       </c>
     </row>
     <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="54"/>
+      <c r="A55" s="63"/>
       <c r="B55" s="39">
         <v>53</v>
       </c>
@@ -21023,7 +21028,7 @@
       </c>
     </row>
     <row r="56" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="54"/>
+      <c r="A56" s="63"/>
       <c r="B56" s="39">
         <v>54</v>
       </c>
@@ -21095,7 +21100,7 @@
       </c>
     </row>
     <row r="57" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="54"/>
+      <c r="A57" s="63"/>
       <c r="B57" s="39">
         <v>55</v>
       </c>
@@ -21167,7 +21172,7 @@
       </c>
     </row>
     <row r="58" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="54"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="39">
         <v>56</v>
       </c>
@@ -21239,7 +21244,7 @@
       </c>
     </row>
     <row r="59" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="54"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="39">
         <v>57</v>
       </c>
@@ -21311,7 +21316,7 @@
       </c>
     </row>
     <row r="60" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="54"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="39">
         <v>58</v>
       </c>
@@ -21383,7 +21388,7 @@
       </c>
     </row>
     <row r="61" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="54"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="39">
         <v>59</v>
       </c>
@@ -21455,7 +21460,7 @@
       </c>
     </row>
     <row r="62" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="54"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="39">
         <v>60</v>
       </c>
@@ -21527,7 +21532,7 @@
       </c>
     </row>
     <row r="63" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="54"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="39">
         <v>61</v>
       </c>
@@ -21599,7 +21604,7 @@
       </c>
     </row>
     <row r="64" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="54"/>
+      <c r="A64" s="63"/>
       <c r="B64" s="39">
         <v>62</v>
       </c>
@@ -21671,7 +21676,7 @@
       </c>
     </row>
     <row r="65" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="54"/>
+      <c r="A65" s="63"/>
       <c r="B65" s="39">
         <v>63</v>
       </c>
@@ -21743,7 +21748,7 @@
       </c>
     </row>
     <row r="66" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="54"/>
+      <c r="A66" s="63"/>
       <c r="B66" s="39">
         <v>64</v>
       </c>
@@ -21815,7 +21820,7 @@
       </c>
     </row>
     <row r="67" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="54"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="39">
         <v>65</v>
       </c>
@@ -21887,7 +21892,7 @@
       </c>
     </row>
     <row r="68" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="54"/>
+      <c r="A68" s="63"/>
       <c r="B68" s="39">
         <v>66</v>
       </c>
@@ -21959,7 +21964,7 @@
       </c>
     </row>
     <row r="69" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="54"/>
+      <c r="A69" s="63"/>
       <c r="B69" s="39">
         <v>67</v>
       </c>
@@ -22031,7 +22036,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="54"/>
+      <c r="A70" s="63"/>
       <c r="B70" s="39">
         <v>68</v>
       </c>
@@ -22103,7 +22108,7 @@
       </c>
     </row>
     <row r="71" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="54"/>
+      <c r="A71" s="63"/>
       <c r="B71" s="39">
         <v>69</v>
       </c>
@@ -22175,7 +22180,7 @@
       </c>
     </row>
     <row r="72" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="54"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="39">
         <v>70</v>
       </c>
@@ -22247,7 +22252,7 @@
       </c>
     </row>
     <row r="73" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="54"/>
+      <c r="A73" s="63"/>
       <c r="B73" s="39">
         <v>71</v>
       </c>
@@ -22319,7 +22324,7 @@
       </c>
     </row>
     <row r="74" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="54"/>
+      <c r="A74" s="63"/>
       <c r="B74" s="39">
         <v>72</v>
       </c>
@@ -22391,7 +22396,7 @@
       </c>
     </row>
     <row r="75" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="54"/>
+      <c r="A75" s="63"/>
       <c r="B75" s="39">
         <v>73</v>
       </c>
@@ -22463,7 +22468,7 @@
       </c>
     </row>
     <row r="76" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="54"/>
+      <c r="A76" s="63"/>
       <c r="B76" s="39">
         <v>74</v>
       </c>
@@ -22535,7 +22540,7 @@
       </c>
     </row>
     <row r="77" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="54"/>
+      <c r="A77" s="63"/>
       <c r="B77" s="39">
         <v>75</v>
       </c>
@@ -22607,7 +22612,7 @@
       </c>
     </row>
     <row r="78" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="54"/>
+      <c r="A78" s="63"/>
       <c r="B78" s="39">
         <v>76</v>
       </c>
@@ -22679,7 +22684,7 @@
       </c>
     </row>
     <row r="79" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="54"/>
+      <c r="A79" s="63"/>
       <c r="B79" s="39">
         <v>77</v>
       </c>
@@ -22751,7 +22756,7 @@
       </c>
     </row>
     <row r="80" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="54"/>
+      <c r="A80" s="63"/>
       <c r="B80" s="39">
         <v>78</v>
       </c>
@@ -22823,7 +22828,7 @@
       </c>
     </row>
     <row r="81" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="54"/>
+      <c r="A81" s="63"/>
       <c r="B81" s="39">
         <v>79</v>
       </c>
@@ -22895,7 +22900,7 @@
       </c>
     </row>
     <row r="82" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="54"/>
+      <c r="A82" s="63"/>
       <c r="B82" s="39">
         <v>80</v>
       </c>
@@ -22967,7 +22972,7 @@
       </c>
     </row>
     <row r="83" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="54"/>
+      <c r="A83" s="63"/>
       <c r="B83" s="39">
         <v>81</v>
       </c>
@@ -23039,7 +23044,7 @@
       </c>
     </row>
     <row r="84" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="54"/>
+      <c r="A84" s="63"/>
       <c r="B84" s="39">
         <v>82</v>
       </c>
@@ -23111,7 +23116,7 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="54"/>
+      <c r="A85" s="63"/>
       <c r="B85" s="39">
         <v>83</v>
       </c>
@@ -23183,7 +23188,7 @@
       </c>
     </row>
     <row r="86" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="54"/>
+      <c r="A86" s="63"/>
       <c r="B86" s="39">
         <v>84</v>
       </c>
@@ -23255,7 +23260,7 @@
       </c>
     </row>
     <row r="87" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="54"/>
+      <c r="A87" s="63"/>
       <c r="B87" s="39">
         <v>85</v>
       </c>
@@ -23327,7 +23332,7 @@
       </c>
     </row>
     <row r="88" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="54"/>
+      <c r="A88" s="63"/>
       <c r="B88" s="39">
         <v>86</v>
       </c>
@@ -23399,7 +23404,7 @@
       </c>
     </row>
     <row r="89" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="54"/>
+      <c r="A89" s="63"/>
       <c r="B89" s="39">
         <v>87</v>
       </c>
@@ -23471,7 +23476,7 @@
       </c>
     </row>
     <row r="90" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="54"/>
+      <c r="A90" s="63"/>
       <c r="B90" s="39">
         <v>88</v>
       </c>
@@ -23543,7 +23548,7 @@
       </c>
     </row>
     <row r="91" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="54"/>
+      <c r="A91" s="63"/>
       <c r="B91" s="39">
         <v>89</v>
       </c>
@@ -23615,7 +23620,7 @@
       </c>
     </row>
     <row r="92" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="54"/>
+      <c r="A92" s="63"/>
       <c r="B92" s="39">
         <v>90</v>
       </c>
@@ -23687,7 +23692,7 @@
       </c>
     </row>
     <row r="93" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="54"/>
+      <c r="A93" s="63"/>
       <c r="B93" s="39">
         <v>91</v>
       </c>
@@ -23759,7 +23764,7 @@
       </c>
     </row>
     <row r="94" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="54"/>
+      <c r="A94" s="63"/>
       <c r="B94" s="39">
         <v>92</v>
       </c>
@@ -23831,7 +23836,7 @@
       </c>
     </row>
     <row r="95" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="54"/>
+      <c r="A95" s="63"/>
       <c r="B95" s="39">
         <v>93</v>
       </c>
@@ -23903,7 +23908,7 @@
       </c>
     </row>
     <row r="96" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="54"/>
+      <c r="A96" s="63"/>
       <c r="B96" s="39">
         <v>94</v>
       </c>
@@ -23975,7 +23980,7 @@
       </c>
     </row>
     <row r="97" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="54"/>
+      <c r="A97" s="63"/>
       <c r="B97" s="39">
         <v>95</v>
       </c>
@@ -24047,7 +24052,7 @@
       </c>
     </row>
     <row r="98" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="54"/>
+      <c r="A98" s="63"/>
       <c r="B98" s="39">
         <v>96</v>
       </c>
@@ -24119,7 +24124,7 @@
       </c>
     </row>
     <row r="99" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="54"/>
+      <c r="A99" s="63"/>
       <c r="B99" s="39">
         <v>97</v>
       </c>
@@ -24191,7 +24196,7 @@
       </c>
     </row>
     <row r="100" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="54"/>
+      <c r="A100" s="63"/>
       <c r="B100" s="39">
         <v>98</v>
       </c>
@@ -24263,7 +24268,7 @@
       </c>
     </row>
     <row r="101" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="54"/>
+      <c r="A101" s="63"/>
       <c r="B101" s="39">
         <v>99</v>
       </c>
@@ -24335,7 +24340,7 @@
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A102" s="55"/>
+      <c r="A102" s="64"/>
       <c r="B102" s="41">
         <v>100</v>
       </c>
@@ -24407,95 +24412,95 @@
       </c>
     </row>
     <row r="103" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="81"/>
-      <c r="B103" s="82"/>
-      <c r="C103" s="83">
+      <c r="A103" s="53"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="55">
         <f>AVERAGEIF($J3:$J102, "TAK", C3:C102)</f>
         <v>0.61881463235294143</v>
       </c>
-      <c r="D103" s="83">
+      <c r="D103" s="55">
         <f t="shared" ref="D103:I103" si="6">AVERAGEIF($J3:$J102, "TAK", D3:D102)</f>
         <v>0.99973976470588233</v>
       </c>
-      <c r="E103" s="83">
+      <c r="E103" s="55">
         <f t="shared" si="6"/>
         <v>-2.2352941176470601E-3</v>
       </c>
-      <c r="F103" s="83">
+      <c r="F103" s="55">
         <f t="shared" si="6"/>
         <v>6.2816764705882341E-3</v>
       </c>
-      <c r="G103" s="83">
+      <c r="G103" s="55">
         <f t="shared" si="6"/>
         <v>9.2176470588235324E-5</v>
       </c>
-      <c r="H103" s="83">
+      <c r="H103" s="55">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I103" s="83">
+      <c r="I103" s="55">
         <f t="shared" si="6"/>
         <v>46.455882352941174</v>
       </c>
-      <c r="J103" s="83">
+      <c r="J103" s="55">
         <f>COUNTIF(J3:J102, "TAK")</f>
         <v>68</v>
       </c>
-      <c r="K103" s="83">
+      <c r="K103" s="55">
         <f>AVERAGEIF($P3:$P102, "TAK", K3:K102)</f>
         <v>-1.8059677419354837E-4</v>
       </c>
-      <c r="L103" s="83">
+      <c r="L103" s="55">
         <f t="shared" ref="L103:O103" si="7">AVERAGEIF($P3:$P102, "TAK", L3:L102)</f>
         <v>8.4611290322580588E-4</v>
       </c>
-      <c r="M103" s="83">
+      <c r="M103" s="55">
         <f t="shared" si="7"/>
         <v>2.8064516129032251E-6</v>
       </c>
-      <c r="N103" s="83">
+      <c r="N103" s="55">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="O103" s="83">
+      <c r="O103" s="55">
         <f t="shared" si="7"/>
         <v>54.854838709677416</v>
       </c>
-      <c r="P103" s="83">
+      <c r="P103" s="55">
         <f>COUNTIF(P3:P102, "TAK")</f>
         <v>62</v>
       </c>
-      <c r="Q103" s="83">
+      <c r="Q103" s="55">
         <f>AVERAGEIF($W3:$W102, "TAK", Q3:Q102)</f>
         <v>5.8207941176470568E-3</v>
       </c>
-      <c r="R103" s="83">
+      <c r="R103" s="55">
         <f t="shared" ref="R103:V103" si="8">AVERAGEIF($W3:$W102, "TAK", R3:R102)</f>
         <v>1.6171323529411766E-2</v>
       </c>
-      <c r="S103" s="83">
+      <c r="S103" s="55">
         <f t="shared" si="8"/>
         <v>4.8094117647058817E-4</v>
       </c>
-      <c r="T103" s="83">
+      <c r="T103" s="55">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="U103" s="83">
+      <c r="U103" s="55">
         <f t="shared" si="8"/>
         <v>74.029411764705884</v>
       </c>
-      <c r="V103" s="83">
+      <c r="V103" s="55">
         <f t="shared" si="8"/>
         <v>74.029411764705884</v>
       </c>
-      <c r="W103" s="83">
+      <c r="W103" s="55">
         <f>COUNTIF(W3:W102, "TAK")</f>
         <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="53">
+      <c r="A104" s="62">
         <v>0.25</v>
       </c>
       <c r="B104" s="38">
@@ -24569,7 +24574,7 @@
       </c>
     </row>
     <row r="105" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="54"/>
+      <c r="A105" s="63"/>
       <c r="B105" s="39">
         <v>2</v>
       </c>
@@ -24641,7 +24646,7 @@
       </c>
     </row>
     <row r="106" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="54"/>
+      <c r="A106" s="63"/>
       <c r="B106" s="39">
         <v>3</v>
       </c>
@@ -24713,7 +24718,7 @@
       </c>
     </row>
     <row r="107" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="54"/>
+      <c r="A107" s="63"/>
       <c r="B107" s="39">
         <v>4</v>
       </c>
@@ -24785,7 +24790,7 @@
       </c>
     </row>
     <row r="108" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="54"/>
+      <c r="A108" s="63"/>
       <c r="B108" s="39">
         <v>5</v>
       </c>
@@ -24857,7 +24862,7 @@
       </c>
     </row>
     <row r="109" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="54"/>
+      <c r="A109" s="63"/>
       <c r="B109" s="39">
         <v>6</v>
       </c>
@@ -24929,7 +24934,7 @@
       </c>
     </row>
     <row r="110" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="54"/>
+      <c r="A110" s="63"/>
       <c r="B110" s="39">
         <v>7</v>
       </c>
@@ -25001,7 +25006,7 @@
       </c>
     </row>
     <row r="111" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="54"/>
+      <c r="A111" s="63"/>
       <c r="B111" s="39">
         <v>8</v>
       </c>
@@ -25073,7 +25078,7 @@
       </c>
     </row>
     <row r="112" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="54"/>
+      <c r="A112" s="63"/>
       <c r="B112" s="39">
         <v>9</v>
       </c>
@@ -25145,7 +25150,7 @@
       </c>
     </row>
     <row r="113" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="54"/>
+      <c r="A113" s="63"/>
       <c r="B113" s="39">
         <v>10</v>
       </c>
@@ -25217,7 +25222,7 @@
       </c>
     </row>
     <row r="114" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="54"/>
+      <c r="A114" s="63"/>
       <c r="B114" s="39">
         <v>11</v>
       </c>
@@ -25289,7 +25294,7 @@
       </c>
     </row>
     <row r="115" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="54"/>
+      <c r="A115" s="63"/>
       <c r="B115" s="39">
         <v>12</v>
       </c>
@@ -25361,7 +25366,7 @@
       </c>
     </row>
     <row r="116" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="54"/>
+      <c r="A116" s="63"/>
       <c r="B116" s="39">
         <v>13</v>
       </c>
@@ -25433,7 +25438,7 @@
       </c>
     </row>
     <row r="117" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="54"/>
+      <c r="A117" s="63"/>
       <c r="B117" s="39">
         <v>14</v>
       </c>
@@ -25505,7 +25510,7 @@
       </c>
     </row>
     <row r="118" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="54"/>
+      <c r="A118" s="63"/>
       <c r="B118" s="39">
         <v>15</v>
       </c>
@@ -25577,7 +25582,7 @@
       </c>
     </row>
     <row r="119" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="54"/>
+      <c r="A119" s="63"/>
       <c r="B119" s="39">
         <v>16</v>
       </c>
@@ -25649,7 +25654,7 @@
       </c>
     </row>
     <row r="120" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="54"/>
+      <c r="A120" s="63"/>
       <c r="B120" s="39">
         <v>17</v>
       </c>
@@ -25721,7 +25726,7 @@
       </c>
     </row>
     <row r="121" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="54"/>
+      <c r="A121" s="63"/>
       <c r="B121" s="39">
         <v>18</v>
       </c>
@@ -25793,7 +25798,7 @@
       </c>
     </row>
     <row r="122" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="54"/>
+      <c r="A122" s="63"/>
       <c r="B122" s="39">
         <v>19</v>
       </c>
@@ -25865,7 +25870,7 @@
       </c>
     </row>
     <row r="123" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="54"/>
+      <c r="A123" s="63"/>
       <c r="B123" s="39">
         <v>20</v>
       </c>
@@ -25937,7 +25942,7 @@
       </c>
     </row>
     <row r="124" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="54"/>
+      <c r="A124" s="63"/>
       <c r="B124" s="39">
         <v>21</v>
       </c>
@@ -26009,7 +26014,7 @@
       </c>
     </row>
     <row r="125" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="54"/>
+      <c r="A125" s="63"/>
       <c r="B125" s="39">
         <v>22</v>
       </c>
@@ -26081,7 +26086,7 @@
       </c>
     </row>
     <row r="126" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="54"/>
+      <c r="A126" s="63"/>
       <c r="B126" s="39">
         <v>23</v>
       </c>
@@ -26153,7 +26158,7 @@
       </c>
     </row>
     <row r="127" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="54"/>
+      <c r="A127" s="63"/>
       <c r="B127" s="39">
         <v>24</v>
       </c>
@@ -26225,7 +26230,7 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="54"/>
+      <c r="A128" s="63"/>
       <c r="B128" s="39">
         <v>25</v>
       </c>
@@ -26297,7 +26302,7 @@
       </c>
     </row>
     <row r="129" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="54"/>
+      <c r="A129" s="63"/>
       <c r="B129" s="39">
         <v>26</v>
       </c>
@@ -26369,7 +26374,7 @@
       </c>
     </row>
     <row r="130" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="54"/>
+      <c r="A130" s="63"/>
       <c r="B130" s="39">
         <v>27</v>
       </c>
@@ -26441,7 +26446,7 @@
       </c>
     </row>
     <row r="131" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="54"/>
+      <c r="A131" s="63"/>
       <c r="B131" s="39">
         <v>28</v>
       </c>
@@ -26513,7 +26518,7 @@
       </c>
     </row>
     <row r="132" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="54"/>
+      <c r="A132" s="63"/>
       <c r="B132" s="39">
         <v>29</v>
       </c>
@@ -26585,7 +26590,7 @@
       </c>
     </row>
     <row r="133" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="54"/>
+      <c r="A133" s="63"/>
       <c r="B133" s="39">
         <v>30</v>
       </c>
@@ -26657,7 +26662,7 @@
       </c>
     </row>
     <row r="134" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="54"/>
+      <c r="A134" s="63"/>
       <c r="B134" s="39">
         <v>31</v>
       </c>
@@ -26729,7 +26734,7 @@
       </c>
     </row>
     <row r="135" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="54"/>
+      <c r="A135" s="63"/>
       <c r="B135" s="39">
         <v>32</v>
       </c>
@@ -26801,7 +26806,7 @@
       </c>
     </row>
     <row r="136" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="54"/>
+      <c r="A136" s="63"/>
       <c r="B136" s="39">
         <v>33</v>
       </c>
@@ -26873,7 +26878,7 @@
       </c>
     </row>
     <row r="137" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="54"/>
+      <c r="A137" s="63"/>
       <c r="B137" s="39">
         <v>34</v>
       </c>
@@ -26945,7 +26950,7 @@
       </c>
     </row>
     <row r="138" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="54"/>
+      <c r="A138" s="63"/>
       <c r="B138" s="39">
         <v>35</v>
       </c>
@@ -27017,7 +27022,7 @@
       </c>
     </row>
     <row r="139" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="54"/>
+      <c r="A139" s="63"/>
       <c r="B139" s="39">
         <v>36</v>
       </c>
@@ -27089,7 +27094,7 @@
       </c>
     </row>
     <row r="140" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="54"/>
+      <c r="A140" s="63"/>
       <c r="B140" s="39">
         <v>37</v>
       </c>
@@ -27161,7 +27166,7 @@
       </c>
     </row>
     <row r="141" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="54"/>
+      <c r="A141" s="63"/>
       <c r="B141" s="39">
         <v>38</v>
       </c>
@@ -27233,7 +27238,7 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="54"/>
+      <c r="A142" s="63"/>
       <c r="B142" s="39">
         <v>39</v>
       </c>
@@ -27305,7 +27310,7 @@
       </c>
     </row>
     <row r="143" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="54"/>
+      <c r="A143" s="63"/>
       <c r="B143" s="39">
         <v>40</v>
       </c>
@@ -27377,7 +27382,7 @@
       </c>
     </row>
     <row r="144" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="54"/>
+      <c r="A144" s="63"/>
       <c r="B144" s="39">
         <v>41</v>
       </c>
@@ -27449,7 +27454,7 @@
       </c>
     </row>
     <row r="145" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="54"/>
+      <c r="A145" s="63"/>
       <c r="B145" s="39">
         <v>42</v>
       </c>
@@ -27521,7 +27526,7 @@
       </c>
     </row>
     <row r="146" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="54"/>
+      <c r="A146" s="63"/>
       <c r="B146" s="39">
         <v>43</v>
       </c>
@@ -27593,7 +27598,7 @@
       </c>
     </row>
     <row r="147" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="54"/>
+      <c r="A147" s="63"/>
       <c r="B147" s="39">
         <v>44</v>
       </c>
@@ -27665,7 +27670,7 @@
       </c>
     </row>
     <row r="148" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="54"/>
+      <c r="A148" s="63"/>
       <c r="B148" s="39">
         <v>45</v>
       </c>
@@ -27737,7 +27742,7 @@
       </c>
     </row>
     <row r="149" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="54"/>
+      <c r="A149" s="63"/>
       <c r="B149" s="39">
         <v>46</v>
       </c>
@@ -27809,7 +27814,7 @@
       </c>
     </row>
     <row r="150" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="54"/>
+      <c r="A150" s="63"/>
       <c r="B150" s="39">
         <v>47</v>
       </c>
@@ -27881,7 +27886,7 @@
       </c>
     </row>
     <row r="151" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="54"/>
+      <c r="A151" s="63"/>
       <c r="B151" s="39">
         <v>48</v>
       </c>
@@ -27953,7 +27958,7 @@
       </c>
     </row>
     <row r="152" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="54"/>
+      <c r="A152" s="63"/>
       <c r="B152" s="39">
         <v>49</v>
       </c>
@@ -28025,7 +28030,7 @@
       </c>
     </row>
     <row r="153" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="54"/>
+      <c r="A153" s="63"/>
       <c r="B153" s="39">
         <v>50</v>
       </c>
@@ -28097,7 +28102,7 @@
       </c>
     </row>
     <row r="154" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="54"/>
+      <c r="A154" s="63"/>
       <c r="B154" s="39">
         <v>51</v>
       </c>
@@ -28169,7 +28174,7 @@
       </c>
     </row>
     <row r="155" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="54"/>
+      <c r="A155" s="63"/>
       <c r="B155" s="39">
         <v>52</v>
       </c>
@@ -28241,7 +28246,7 @@
       </c>
     </row>
     <row r="156" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="54"/>
+      <c r="A156" s="63"/>
       <c r="B156" s="39">
         <v>53</v>
       </c>
@@ -28313,7 +28318,7 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="54"/>
+      <c r="A157" s="63"/>
       <c r="B157" s="39">
         <v>54</v>
       </c>
@@ -28385,7 +28390,7 @@
       </c>
     </row>
     <row r="158" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="54"/>
+      <c r="A158" s="63"/>
       <c r="B158" s="39">
         <v>55</v>
       </c>
@@ -28457,7 +28462,7 @@
       </c>
     </row>
     <row r="159" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="54"/>
+      <c r="A159" s="63"/>
       <c r="B159" s="39">
         <v>56</v>
       </c>
@@ -28529,7 +28534,7 @@
       </c>
     </row>
     <row r="160" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="54"/>
+      <c r="A160" s="63"/>
       <c r="B160" s="39">
         <v>57</v>
       </c>
@@ -28601,7 +28606,7 @@
       </c>
     </row>
     <row r="161" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="54"/>
+      <c r="A161" s="63"/>
       <c r="B161" s="39">
         <v>58</v>
       </c>
@@ -28673,7 +28678,7 @@
       </c>
     </row>
     <row r="162" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="54"/>
+      <c r="A162" s="63"/>
       <c r="B162" s="39">
         <v>59</v>
       </c>
@@ -28745,7 +28750,7 @@
       </c>
     </row>
     <row r="163" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="54"/>
+      <c r="A163" s="63"/>
       <c r="B163" s="39">
         <v>60</v>
       </c>
@@ -28817,7 +28822,7 @@
       </c>
     </row>
     <row r="164" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="54"/>
+      <c r="A164" s="63"/>
       <c r="B164" s="39">
         <v>61</v>
       </c>
@@ -28889,7 +28894,7 @@
       </c>
     </row>
     <row r="165" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="54"/>
+      <c r="A165" s="63"/>
       <c r="B165" s="39">
         <v>62</v>
       </c>
@@ -28961,7 +28966,7 @@
       </c>
     </row>
     <row r="166" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="54"/>
+      <c r="A166" s="63"/>
       <c r="B166" s="39">
         <v>63</v>
       </c>
@@ -29033,7 +29038,7 @@
       </c>
     </row>
     <row r="167" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="54"/>
+      <c r="A167" s="63"/>
       <c r="B167" s="39">
         <v>64</v>
       </c>
@@ -29105,7 +29110,7 @@
       </c>
     </row>
     <row r="168" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="54"/>
+      <c r="A168" s="63"/>
       <c r="B168" s="39">
         <v>65</v>
       </c>
@@ -29177,7 +29182,7 @@
       </c>
     </row>
     <row r="169" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="54"/>
+      <c r="A169" s="63"/>
       <c r="B169" s="39">
         <v>66</v>
       </c>
@@ -29249,7 +29254,7 @@
       </c>
     </row>
     <row r="170" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="54"/>
+      <c r="A170" s="63"/>
       <c r="B170" s="39">
         <v>67</v>
       </c>
@@ -29321,7 +29326,7 @@
       </c>
     </row>
     <row r="171" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="54"/>
+      <c r="A171" s="63"/>
       <c r="B171" s="39">
         <v>68</v>
       </c>
@@ -29393,7 +29398,7 @@
       </c>
     </row>
     <row r="172" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="54"/>
+      <c r="A172" s="63"/>
       <c r="B172" s="39">
         <v>69</v>
       </c>
@@ -29465,7 +29470,7 @@
       </c>
     </row>
     <row r="173" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="54"/>
+      <c r="A173" s="63"/>
       <c r="B173" s="39">
         <v>70</v>
       </c>
@@ -29537,7 +29542,7 @@
       </c>
     </row>
     <row r="174" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="54"/>
+      <c r="A174" s="63"/>
       <c r="B174" s="39">
         <v>71</v>
       </c>
@@ -29609,7 +29614,7 @@
       </c>
     </row>
     <row r="175" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="54"/>
+      <c r="A175" s="63"/>
       <c r="B175" s="39">
         <v>72</v>
       </c>
@@ -29681,7 +29686,7 @@
       </c>
     </row>
     <row r="176" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="54"/>
+      <c r="A176" s="63"/>
       <c r="B176" s="39">
         <v>73</v>
       </c>
@@ -29753,7 +29758,7 @@
       </c>
     </row>
     <row r="177" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="54"/>
+      <c r="A177" s="63"/>
       <c r="B177" s="39">
         <v>74</v>
       </c>
@@ -29825,7 +29830,7 @@
       </c>
     </row>
     <row r="178" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="54"/>
+      <c r="A178" s="63"/>
       <c r="B178" s="39">
         <v>75</v>
       </c>
@@ -29897,7 +29902,7 @@
       </c>
     </row>
     <row r="179" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="54"/>
+      <c r="A179" s="63"/>
       <c r="B179" s="39">
         <v>76</v>
       </c>
@@ -29969,7 +29974,7 @@
       </c>
     </row>
     <row r="180" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="54"/>
+      <c r="A180" s="63"/>
       <c r="B180" s="39">
         <v>77</v>
       </c>
@@ -30041,7 +30046,7 @@
       </c>
     </row>
     <row r="181" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="54"/>
+      <c r="A181" s="63"/>
       <c r="B181" s="39">
         <v>78</v>
       </c>
@@ -30113,7 +30118,7 @@
       </c>
     </row>
     <row r="182" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="54"/>
+      <c r="A182" s="63"/>
       <c r="B182" s="39">
         <v>79</v>
       </c>
@@ -30185,7 +30190,7 @@
       </c>
     </row>
     <row r="183" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="54"/>
+      <c r="A183" s="63"/>
       <c r="B183" s="39">
         <v>80</v>
       </c>
@@ -30257,7 +30262,7 @@
       </c>
     </row>
     <row r="184" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="54"/>
+      <c r="A184" s="63"/>
       <c r="B184" s="39">
         <v>81</v>
       </c>
@@ -30329,7 +30334,7 @@
       </c>
     </row>
     <row r="185" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="54"/>
+      <c r="A185" s="63"/>
       <c r="B185" s="39">
         <v>82</v>
       </c>
@@ -30401,7 +30406,7 @@
       </c>
     </row>
     <row r="186" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="54"/>
+      <c r="A186" s="63"/>
       <c r="B186" s="39">
         <v>83</v>
       </c>
@@ -30473,7 +30478,7 @@
       </c>
     </row>
     <row r="187" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="54"/>
+      <c r="A187" s="63"/>
       <c r="B187" s="39">
         <v>84</v>
       </c>
@@ -30545,7 +30550,7 @@
       </c>
     </row>
     <row r="188" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="54"/>
+      <c r="A188" s="63"/>
       <c r="B188" s="39">
         <v>85</v>
       </c>
@@ -30617,7 +30622,7 @@
       </c>
     </row>
     <row r="189" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="54"/>
+      <c r="A189" s="63"/>
       <c r="B189" s="39">
         <v>86</v>
       </c>
@@ -30689,7 +30694,7 @@
       </c>
     </row>
     <row r="190" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="54"/>
+      <c r="A190" s="63"/>
       <c r="B190" s="39">
         <v>87</v>
       </c>
@@ -30761,7 +30766,7 @@
       </c>
     </row>
     <row r="191" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="54"/>
+      <c r="A191" s="63"/>
       <c r="B191" s="39">
         <v>88</v>
       </c>
@@ -30833,7 +30838,7 @@
       </c>
     </row>
     <row r="192" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="54"/>
+      <c r="A192" s="63"/>
       <c r="B192" s="39">
         <v>89</v>
       </c>
@@ -30905,7 +30910,7 @@
       </c>
     </row>
     <row r="193" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="54"/>
+      <c r="A193" s="63"/>
       <c r="B193" s="39">
         <v>90</v>
       </c>
@@ -30977,7 +30982,7 @@
       </c>
     </row>
     <row r="194" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="54"/>
+      <c r="A194" s="63"/>
       <c r="B194" s="39">
         <v>91</v>
       </c>
@@ -31049,7 +31054,7 @@
       </c>
     </row>
     <row r="195" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="54"/>
+      <c r="A195" s="63"/>
       <c r="B195" s="39">
         <v>92</v>
       </c>
@@ -31121,7 +31126,7 @@
       </c>
     </row>
     <row r="196" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="54"/>
+      <c r="A196" s="63"/>
       <c r="B196" s="39">
         <v>93</v>
       </c>
@@ -31193,7 +31198,7 @@
       </c>
     </row>
     <row r="197" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="54"/>
+      <c r="A197" s="63"/>
       <c r="B197" s="39">
         <v>94</v>
       </c>
@@ -31265,7 +31270,7 @@
       </c>
     </row>
     <row r="198" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="54"/>
+      <c r="A198" s="63"/>
       <c r="B198" s="39">
         <v>95</v>
       </c>
@@ -31337,7 +31342,7 @@
       </c>
     </row>
     <row r="199" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="54"/>
+      <c r="A199" s="63"/>
       <c r="B199" s="39">
         <v>96</v>
       </c>
@@ -31409,7 +31414,7 @@
       </c>
     </row>
     <row r="200" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="54"/>
+      <c r="A200" s="63"/>
       <c r="B200" s="39">
         <v>97</v>
       </c>
@@ -31481,7 +31486,7 @@
       </c>
     </row>
     <row r="201" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="54"/>
+      <c r="A201" s="63"/>
       <c r="B201" s="39">
         <v>98</v>
       </c>
@@ -31553,7 +31558,7 @@
       </c>
     </row>
     <row r="202" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="54"/>
+      <c r="A202" s="63"/>
       <c r="B202" s="39">
         <v>99</v>
       </c>
@@ -31625,7 +31630,7 @@
       </c>
     </row>
     <row r="203" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="56"/>
+      <c r="A203" s="65"/>
       <c r="B203" s="40">
         <v>100</v>
       </c>
@@ -31697,95 +31702,95 @@
       </c>
     </row>
     <row r="204" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="81"/>
-      <c r="B204" s="82"/>
-      <c r="C204" s="83">
+      <c r="A204" s="53"/>
+      <c r="B204" s="54"/>
+      <c r="C204" s="55">
         <f>AVERAGEIF($J104:$J203, "TAK", C104:C203)</f>
         <v>0.8980508522727273</v>
       </c>
-      <c r="D204" s="83">
+      <c r="D204" s="55">
         <f t="shared" ref="D204" si="15">AVERAGEIF($J104:$J203, "TAK", D104:D203)</f>
         <v>1.1844803863636364</v>
       </c>
-      <c r="E204" s="83">
+      <c r="E204" s="55">
         <f t="shared" ref="E204" si="16">AVERAGEIF($J104:$J203, "TAK", E104:E203)</f>
         <v>-9.7215909090909088E-5</v>
       </c>
-      <c r="F204" s="83">
+      <c r="F204" s="55">
         <f t="shared" ref="F204" si="17">AVERAGEIF($J104:$J203, "TAK", F104:F203)</f>
         <v>2.3482954545454537E-4</v>
       </c>
-      <c r="G204" s="83">
+      <c r="G204" s="55">
         <f t="shared" ref="G204" si="18">AVERAGEIF($J104:$J203, "TAK", G104:G203)</f>
         <v>1.2159090909090887E-6</v>
       </c>
-      <c r="H204" s="83">
+      <c r="H204" s="55">
         <f t="shared" ref="H204" si="19">AVERAGEIF($J104:$J203, "TAK", H104:H203)</f>
         <v>1</v>
       </c>
-      <c r="I204" s="83">
+      <c r="I204" s="55">
         <f t="shared" ref="I204" si="20">AVERAGEIF($J104:$J203, "TAK", I104:I203)</f>
         <v>12.863636363636363</v>
       </c>
-      <c r="J204" s="83">
+      <c r="J204" s="55">
         <f>COUNTIF(J104:J203, "TAK")</f>
         <v>88</v>
       </c>
-      <c r="K204" s="83">
+      <c r="K204" s="55">
         <f>AVERAGEIF($P104:$P203, "TAK", K104:K203)</f>
         <v>-7.6486486486486487E-6</v>
       </c>
-      <c r="L204" s="83">
+      <c r="L204" s="55">
         <f t="shared" ref="L204" si="21">AVERAGEIF($P104:$P203, "TAK", L104:L203)</f>
         <v>8.951351351351354E-5</v>
       </c>
-      <c r="M204" s="83">
+      <c r="M204" s="55">
         <f t="shared" ref="M204" si="22">AVERAGEIF($P104:$P203, "TAK", M104:M203)</f>
         <v>6.756756756756756E-8</v>
       </c>
-      <c r="N204" s="83">
+      <c r="N204" s="55">
         <f t="shared" ref="N204" si="23">AVERAGEIF($P104:$P203, "TAK", N104:N203)</f>
         <v>1</v>
       </c>
-      <c r="O204" s="83">
+      <c r="O204" s="55">
         <f t="shared" ref="O204" si="24">AVERAGEIF($P104:$P203, "TAK", O104:O203)</f>
         <v>25.216216216216218</v>
       </c>
-      <c r="P204" s="83">
+      <c r="P204" s="55">
         <f>COUNTIF(P104:P203, "TAK")</f>
         <v>74</v>
       </c>
-      <c r="Q204" s="83">
+      <c r="Q204" s="55">
         <f>AVERAGEIF($W104:$W203, "TAK", Q104:Q203)</f>
         <v>3.2860869565217387E-4</v>
       </c>
-      <c r="R204" s="83">
+      <c r="R204" s="55">
         <f t="shared" ref="R204" si="25">AVERAGEIF($W104:$W203, "TAK", R104:R203)</f>
         <v>2.5734347826086952E-3</v>
       </c>
-      <c r="S204" s="83">
+      <c r="S204" s="55">
         <f t="shared" ref="S204" si="26">AVERAGEIF($W104:$W203, "TAK", S104:S203)</f>
         <v>8.2173913043478291E-6</v>
       </c>
-      <c r="T204" s="83">
+      <c r="T204" s="55">
         <f t="shared" ref="T204" si="27">AVERAGEIF($W104:$W203, "TAK", T104:T203)</f>
         <v>1</v>
       </c>
-      <c r="U204" s="83">
+      <c r="U204" s="55">
         <f t="shared" ref="U204" si="28">AVERAGEIF($W104:$W203, "TAK", U104:U203)</f>
         <v>21.478260869565219</v>
       </c>
-      <c r="V204" s="83">
+      <c r="V204" s="55">
         <f t="shared" ref="V204" si="29">AVERAGEIF($W104:$W203, "TAK", V104:V203)</f>
         <v>21.478260869565219</v>
       </c>
-      <c r="W204" s="83">
+      <c r="W204" s="55">
         <f>COUNTIF(W104:W203, "TAK")</f>
         <v>23</v>
       </c>
     </row>
     <row r="205" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="57" t="s">
+      <c r="A205" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B205" s="45">
@@ -31859,7 +31864,7 @@
       </c>
     </row>
     <row r="206" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="54"/>
+      <c r="A206" s="63"/>
       <c r="B206" s="39">
         <v>2</v>
       </c>
@@ -31931,7 +31936,7 @@
       </c>
     </row>
     <row r="207" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="54"/>
+      <c r="A207" s="63"/>
       <c r="B207" s="39">
         <v>3</v>
       </c>
@@ -32003,7 +32008,7 @@
       </c>
     </row>
     <row r="208" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="54"/>
+      <c r="A208" s="63"/>
       <c r="B208" s="39">
         <v>4</v>
       </c>
@@ -32075,7 +32080,7 @@
       </c>
     </row>
     <row r="209" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="54"/>
+      <c r="A209" s="63"/>
       <c r="B209" s="39">
         <v>5</v>
       </c>
@@ -32147,7 +32152,7 @@
       </c>
     </row>
     <row r="210" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="54"/>
+      <c r="A210" s="63"/>
       <c r="B210" s="39">
         <v>6</v>
       </c>
@@ -32219,7 +32224,7 @@
       </c>
     </row>
     <row r="211" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="54"/>
+      <c r="A211" s="63"/>
       <c r="B211" s="39">
         <v>7</v>
       </c>
@@ -32291,7 +32296,7 @@
       </c>
     </row>
     <row r="212" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="54"/>
+      <c r="A212" s="63"/>
       <c r="B212" s="39">
         <v>8</v>
       </c>
@@ -32363,7 +32368,7 @@
       </c>
     </row>
     <row r="213" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="54"/>
+      <c r="A213" s="63"/>
       <c r="B213" s="39">
         <v>9</v>
       </c>
@@ -32435,7 +32440,7 @@
       </c>
     </row>
     <row r="214" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="54"/>
+      <c r="A214" s="63"/>
       <c r="B214" s="39">
         <v>10</v>
       </c>
@@ -32507,7 +32512,7 @@
       </c>
     </row>
     <row r="215" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="54"/>
+      <c r="A215" s="63"/>
       <c r="B215" s="39">
         <v>11</v>
       </c>
@@ -32579,7 +32584,7 @@
       </c>
     </row>
     <row r="216" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="54"/>
+      <c r="A216" s="63"/>
       <c r="B216" s="39">
         <v>12</v>
       </c>
@@ -32651,7 +32656,7 @@
       </c>
     </row>
     <row r="217" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="54"/>
+      <c r="A217" s="63"/>
       <c r="B217" s="39">
         <v>13</v>
       </c>
@@ -32723,7 +32728,7 @@
       </c>
     </row>
     <row r="218" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="54"/>
+      <c r="A218" s="63"/>
       <c r="B218" s="39">
         <v>14</v>
       </c>
@@ -32795,7 +32800,7 @@
       </c>
     </row>
     <row r="219" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="54"/>
+      <c r="A219" s="63"/>
       <c r="B219" s="39">
         <v>15</v>
       </c>
@@ -32867,7 +32872,7 @@
       </c>
     </row>
     <row r="220" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="54"/>
+      <c r="A220" s="63"/>
       <c r="B220" s="39">
         <v>16</v>
       </c>
@@ -32939,7 +32944,7 @@
       </c>
     </row>
     <row r="221" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="54"/>
+      <c r="A221" s="63"/>
       <c r="B221" s="39">
         <v>17</v>
       </c>
@@ -33011,7 +33016,7 @@
       </c>
     </row>
     <row r="222" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="54"/>
+      <c r="A222" s="63"/>
       <c r="B222" s="39">
         <v>18</v>
       </c>
@@ -33083,7 +33088,7 @@
       </c>
     </row>
     <row r="223" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="54"/>
+      <c r="A223" s="63"/>
       <c r="B223" s="39">
         <v>19</v>
       </c>
@@ -33155,7 +33160,7 @@
       </c>
     </row>
     <row r="224" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="54"/>
+      <c r="A224" s="63"/>
       <c r="B224" s="39">
         <v>20</v>
       </c>
@@ -33227,7 +33232,7 @@
       </c>
     </row>
     <row r="225" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="54"/>
+      <c r="A225" s="63"/>
       <c r="B225" s="39">
         <v>21</v>
       </c>
@@ -33299,7 +33304,7 @@
       </c>
     </row>
     <row r="226" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="54"/>
+      <c r="A226" s="63"/>
       <c r="B226" s="39">
         <v>22</v>
       </c>
@@ -33371,7 +33376,7 @@
       </c>
     </row>
     <row r="227" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="54"/>
+      <c r="A227" s="63"/>
       <c r="B227" s="39">
         <v>23</v>
       </c>
@@ -33443,7 +33448,7 @@
       </c>
     </row>
     <row r="228" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="54"/>
+      <c r="A228" s="63"/>
       <c r="B228" s="39">
         <v>24</v>
       </c>
@@ -33515,7 +33520,7 @@
       </c>
     </row>
     <row r="229" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="54"/>
+      <c r="A229" s="63"/>
       <c r="B229" s="39">
         <v>25</v>
       </c>
@@ -33587,7 +33592,7 @@
       </c>
     </row>
     <row r="230" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="54"/>
+      <c r="A230" s="63"/>
       <c r="B230" s="39">
         <v>26</v>
       </c>
@@ -33659,7 +33664,7 @@
       </c>
     </row>
     <row r="231" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="54"/>
+      <c r="A231" s="63"/>
       <c r="B231" s="39">
         <v>27</v>
       </c>
@@ -33731,7 +33736,7 @@
       </c>
     </row>
     <row r="232" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="54"/>
+      <c r="A232" s="63"/>
       <c r="B232" s="39">
         <v>28</v>
       </c>
@@ -33803,7 +33808,7 @@
       </c>
     </row>
     <row r="233" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="54"/>
+      <c r="A233" s="63"/>
       <c r="B233" s="39">
         <v>29</v>
       </c>
@@ -33875,7 +33880,7 @@
       </c>
     </row>
     <row r="234" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="54"/>
+      <c r="A234" s="63"/>
       <c r="B234" s="39">
         <v>30</v>
       </c>
@@ -33947,7 +33952,7 @@
       </c>
     </row>
     <row r="235" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="54"/>
+      <c r="A235" s="63"/>
       <c r="B235" s="39">
         <v>31</v>
       </c>
@@ -34019,7 +34024,7 @@
       </c>
     </row>
     <row r="236" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="54"/>
+      <c r="A236" s="63"/>
       <c r="B236" s="39">
         <v>32</v>
       </c>
@@ -34091,7 +34096,7 @@
       </c>
     </row>
     <row r="237" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="54"/>
+      <c r="A237" s="63"/>
       <c r="B237" s="39">
         <v>33</v>
       </c>
@@ -34163,7 +34168,7 @@
       </c>
     </row>
     <row r="238" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="54"/>
+      <c r="A238" s="63"/>
       <c r="B238" s="39">
         <v>34</v>
       </c>
@@ -34235,7 +34240,7 @@
       </c>
     </row>
     <row r="239" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="54"/>
+      <c r="A239" s="63"/>
       <c r="B239" s="39">
         <v>35</v>
       </c>
@@ -34307,7 +34312,7 @@
       </c>
     </row>
     <row r="240" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="54"/>
+      <c r="A240" s="63"/>
       <c r="B240" s="39">
         <v>36</v>
       </c>
@@ -34379,7 +34384,7 @@
       </c>
     </row>
     <row r="241" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="54"/>
+      <c r="A241" s="63"/>
       <c r="B241" s="39">
         <v>37</v>
       </c>
@@ -34451,7 +34456,7 @@
       </c>
     </row>
     <row r="242" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="54"/>
+      <c r="A242" s="63"/>
       <c r="B242" s="39">
         <v>38</v>
       </c>
@@ -34523,7 +34528,7 @@
       </c>
     </row>
     <row r="243" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="54"/>
+      <c r="A243" s="63"/>
       <c r="B243" s="39">
         <v>39</v>
       </c>
@@ -34595,7 +34600,7 @@
       </c>
     </row>
     <row r="244" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="54"/>
+      <c r="A244" s="63"/>
       <c r="B244" s="39">
         <v>40</v>
       </c>
@@ -34667,7 +34672,7 @@
       </c>
     </row>
     <row r="245" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="54"/>
+      <c r="A245" s="63"/>
       <c r="B245" s="39">
         <v>41</v>
       </c>
@@ -34739,7 +34744,7 @@
       </c>
     </row>
     <row r="246" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="54"/>
+      <c r="A246" s="63"/>
       <c r="B246" s="39">
         <v>42</v>
       </c>
@@ -34811,7 +34816,7 @@
       </c>
     </row>
     <row r="247" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="54"/>
+      <c r="A247" s="63"/>
       <c r="B247" s="39">
         <v>43</v>
       </c>
@@ -34883,7 +34888,7 @@
       </c>
     </row>
     <row r="248" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="54"/>
+      <c r="A248" s="63"/>
       <c r="B248" s="39">
         <v>44</v>
       </c>
@@ -34955,7 +34960,7 @@
       </c>
     </row>
     <row r="249" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="54"/>
+      <c r="A249" s="63"/>
       <c r="B249" s="39">
         <v>45</v>
       </c>
@@ -35027,7 +35032,7 @@
       </c>
     </row>
     <row r="250" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="54"/>
+      <c r="A250" s="63"/>
       <c r="B250" s="39">
         <v>46</v>
       </c>
@@ -35099,7 +35104,7 @@
       </c>
     </row>
     <row r="251" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="54"/>
+      <c r="A251" s="63"/>
       <c r="B251" s="39">
         <v>47</v>
       </c>
@@ -35171,7 +35176,7 @@
       </c>
     </row>
     <row r="252" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="54"/>
+      <c r="A252" s="63"/>
       <c r="B252" s="39">
         <v>48</v>
       </c>
@@ -35243,7 +35248,7 @@
       </c>
     </row>
     <row r="253" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="54"/>
+      <c r="A253" s="63"/>
       <c r="B253" s="39">
         <v>49</v>
       </c>
@@ -35315,7 +35320,7 @@
       </c>
     </row>
     <row r="254" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="54"/>
+      <c r="A254" s="63"/>
       <c r="B254" s="39">
         <v>50</v>
       </c>
@@ -35387,7 +35392,7 @@
       </c>
     </row>
     <row r="255" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="54"/>
+      <c r="A255" s="63"/>
       <c r="B255" s="39">
         <v>51</v>
       </c>
@@ -35459,7 +35464,7 @@
       </c>
     </row>
     <row r="256" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="54"/>
+      <c r="A256" s="63"/>
       <c r="B256" s="39">
         <v>52</v>
       </c>
@@ -35531,7 +35536,7 @@
       </c>
     </row>
     <row r="257" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="54"/>
+      <c r="A257" s="63"/>
       <c r="B257" s="39">
         <v>53</v>
       </c>
@@ -35603,7 +35608,7 @@
       </c>
     </row>
     <row r="258" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="54"/>
+      <c r="A258" s="63"/>
       <c r="B258" s="39">
         <v>54</v>
       </c>
@@ -35675,7 +35680,7 @@
       </c>
     </row>
     <row r="259" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="54"/>
+      <c r="A259" s="63"/>
       <c r="B259" s="39">
         <v>55</v>
       </c>
@@ -35747,7 +35752,7 @@
       </c>
     </row>
     <row r="260" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="54"/>
+      <c r="A260" s="63"/>
       <c r="B260" s="39">
         <v>56</v>
       </c>
@@ -35819,7 +35824,7 @@
       </c>
     </row>
     <row r="261" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A261" s="54"/>
+      <c r="A261" s="63"/>
       <c r="B261" s="39">
         <v>57</v>
       </c>
@@ -35891,7 +35896,7 @@
       </c>
     </row>
     <row r="262" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="54"/>
+      <c r="A262" s="63"/>
       <c r="B262" s="39">
         <v>58</v>
       </c>
@@ -35963,7 +35968,7 @@
       </c>
     </row>
     <row r="263" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="54"/>
+      <c r="A263" s="63"/>
       <c r="B263" s="39">
         <v>59</v>
       </c>
@@ -36035,7 +36040,7 @@
       </c>
     </row>
     <row r="264" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A264" s="54"/>
+      <c r="A264" s="63"/>
       <c r="B264" s="39">
         <v>60</v>
       </c>
@@ -36107,7 +36112,7 @@
       </c>
     </row>
     <row r="265" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A265" s="54"/>
+      <c r="A265" s="63"/>
       <c r="B265" s="39">
         <v>61</v>
       </c>
@@ -36179,7 +36184,7 @@
       </c>
     </row>
     <row r="266" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="54"/>
+      <c r="A266" s="63"/>
       <c r="B266" s="39">
         <v>62</v>
       </c>
@@ -36251,7 +36256,7 @@
       </c>
     </row>
     <row r="267" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="54"/>
+      <c r="A267" s="63"/>
       <c r="B267" s="39">
         <v>63</v>
       </c>
@@ -36323,7 +36328,7 @@
       </c>
     </row>
     <row r="268" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="54"/>
+      <c r="A268" s="63"/>
       <c r="B268" s="39">
         <v>64</v>
       </c>
@@ -36395,7 +36400,7 @@
       </c>
     </row>
     <row r="269" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="54"/>
+      <c r="A269" s="63"/>
       <c r="B269" s="39">
         <v>65</v>
       </c>
@@ -36467,7 +36472,7 @@
       </c>
     </row>
     <row r="270" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="54"/>
+      <c r="A270" s="63"/>
       <c r="B270" s="39">
         <v>66</v>
       </c>
@@ -36539,7 +36544,7 @@
       </c>
     </row>
     <row r="271" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="54"/>
+      <c r="A271" s="63"/>
       <c r="B271" s="39">
         <v>67</v>
       </c>
@@ -36611,7 +36616,7 @@
       </c>
     </row>
     <row r="272" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="54"/>
+      <c r="A272" s="63"/>
       <c r="B272" s="39">
         <v>68</v>
       </c>
@@ -36683,7 +36688,7 @@
       </c>
     </row>
     <row r="273" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A273" s="54"/>
+      <c r="A273" s="63"/>
       <c r="B273" s="39">
         <v>69</v>
       </c>
@@ -36755,7 +36760,7 @@
       </c>
     </row>
     <row r="274" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A274" s="54"/>
+      <c r="A274" s="63"/>
       <c r="B274" s="39">
         <v>70</v>
       </c>
@@ -36827,7 +36832,7 @@
       </c>
     </row>
     <row r="275" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="54"/>
+      <c r="A275" s="63"/>
       <c r="B275" s="39">
         <v>71</v>
       </c>
@@ -36899,7 +36904,7 @@
       </c>
     </row>
     <row r="276" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="54"/>
+      <c r="A276" s="63"/>
       <c r="B276" s="39">
         <v>72</v>
       </c>
@@ -36971,7 +36976,7 @@
       </c>
     </row>
     <row r="277" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="54"/>
+      <c r="A277" s="63"/>
       <c r="B277" s="39">
         <v>73</v>
       </c>
@@ -37043,7 +37048,7 @@
       </c>
     </row>
     <row r="278" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="54"/>
+      <c r="A278" s="63"/>
       <c r="B278" s="39">
         <v>74</v>
       </c>
@@ -37115,7 +37120,7 @@
       </c>
     </row>
     <row r="279" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="54"/>
+      <c r="A279" s="63"/>
       <c r="B279" s="39">
         <v>75</v>
       </c>
@@ -37187,7 +37192,7 @@
       </c>
     </row>
     <row r="280" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="54"/>
+      <c r="A280" s="63"/>
       <c r="B280" s="39">
         <v>76</v>
       </c>
@@ -37259,7 +37264,7 @@
       </c>
     </row>
     <row r="281" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="54"/>
+      <c r="A281" s="63"/>
       <c r="B281" s="39">
         <v>77</v>
       </c>
@@ -37331,7 +37336,7 @@
       </c>
     </row>
     <row r="282" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="54"/>
+      <c r="A282" s="63"/>
       <c r="B282" s="39">
         <v>78</v>
       </c>
@@ -37403,7 +37408,7 @@
       </c>
     </row>
     <row r="283" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="54"/>
+      <c r="A283" s="63"/>
       <c r="B283" s="39">
         <v>79</v>
       </c>
@@ -37475,7 +37480,7 @@
       </c>
     </row>
     <row r="284" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A284" s="54"/>
+      <c r="A284" s="63"/>
       <c r="B284" s="39">
         <v>80</v>
       </c>
@@ -37547,7 +37552,7 @@
       </c>
     </row>
     <row r="285" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="54"/>
+      <c r="A285" s="63"/>
       <c r="B285" s="39">
         <v>81</v>
       </c>
@@ -37619,7 +37624,7 @@
       </c>
     </row>
     <row r="286" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="54"/>
+      <c r="A286" s="63"/>
       <c r="B286" s="39">
         <v>82</v>
       </c>
@@ -37691,7 +37696,7 @@
       </c>
     </row>
     <row r="287" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="54"/>
+      <c r="A287" s="63"/>
       <c r="B287" s="39">
         <v>83</v>
       </c>
@@ -37763,7 +37768,7 @@
       </c>
     </row>
     <row r="288" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A288" s="54"/>
+      <c r="A288" s="63"/>
       <c r="B288" s="39">
         <v>84</v>
       </c>
@@ -37835,7 +37840,7 @@
       </c>
     </row>
     <row r="289" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="54"/>
+      <c r="A289" s="63"/>
       <c r="B289" s="39">
         <v>85</v>
       </c>
@@ -37907,7 +37912,7 @@
       </c>
     </row>
     <row r="290" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A290" s="54"/>
+      <c r="A290" s="63"/>
       <c r="B290" s="39">
         <v>86</v>
       </c>
@@ -37979,7 +37984,7 @@
       </c>
     </row>
     <row r="291" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A291" s="54"/>
+      <c r="A291" s="63"/>
       <c r="B291" s="39">
         <v>87</v>
       </c>
@@ -38051,7 +38056,7 @@
       </c>
     </row>
     <row r="292" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A292" s="54"/>
+      <c r="A292" s="63"/>
       <c r="B292" s="39">
         <v>88</v>
       </c>
@@ -38123,7 +38128,7 @@
       </c>
     </row>
     <row r="293" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="54"/>
+      <c r="A293" s="63"/>
       <c r="B293" s="39">
         <v>89</v>
       </c>
@@ -38195,7 +38200,7 @@
       </c>
     </row>
     <row r="294" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A294" s="54"/>
+      <c r="A294" s="63"/>
       <c r="B294" s="39">
         <v>90</v>
       </c>
@@ -38267,7 +38272,7 @@
       </c>
     </row>
     <row r="295" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="54"/>
+      <c r="A295" s="63"/>
       <c r="B295" s="39">
         <v>91</v>
       </c>
@@ -38339,7 +38344,7 @@
       </c>
     </row>
     <row r="296" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A296" s="54"/>
+      <c r="A296" s="63"/>
       <c r="B296" s="39">
         <v>92</v>
       </c>
@@ -38411,7 +38416,7 @@
       </c>
     </row>
     <row r="297" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="54"/>
+      <c r="A297" s="63"/>
       <c r="B297" s="39">
         <v>93</v>
       </c>
@@ -38483,7 +38488,7 @@
       </c>
     </row>
     <row r="298" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A298" s="54"/>
+      <c r="A298" s="63"/>
       <c r="B298" s="39">
         <v>94</v>
       </c>
@@ -38555,7 +38560,7 @@
       </c>
     </row>
     <row r="299" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A299" s="54"/>
+      <c r="A299" s="63"/>
       <c r="B299" s="39">
         <v>95</v>
       </c>
@@ -38627,7 +38632,7 @@
       </c>
     </row>
     <row r="300" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A300" s="54"/>
+      <c r="A300" s="63"/>
       <c r="B300" s="39">
         <v>96</v>
       </c>
@@ -38699,7 +38704,7 @@
       </c>
     </row>
     <row r="301" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A301" s="54"/>
+      <c r="A301" s="63"/>
       <c r="B301" s="39">
         <v>97</v>
       </c>
@@ -38771,7 +38776,7 @@
       </c>
     </row>
     <row r="302" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="54"/>
+      <c r="A302" s="63"/>
       <c r="B302" s="39">
         <v>98</v>
       </c>
@@ -38843,7 +38848,7 @@
       </c>
     </row>
     <row r="303" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="54"/>
+      <c r="A303" s="63"/>
       <c r="B303" s="39">
         <v>99</v>
       </c>
@@ -38915,7 +38920,7 @@
       </c>
     </row>
     <row r="304" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="56"/>
+      <c r="A304" s="65"/>
       <c r="B304" s="40">
         <v>100</v>
       </c>
@@ -38987,87 +38992,87 @@
       </c>
     </row>
     <row r="305" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C305" s="83">
+      <c r="C305" s="55">
         <f>AVERAGEIF($J205:$J304, "TAK", C205:C304)</f>
         <v>0.70296780645161261</v>
       </c>
-      <c r="D305" s="83">
+      <c r="D305" s="55">
         <f t="shared" ref="D305" si="33">AVERAGEIF($J205:$J304, "TAK", D205:D304)</f>
         <v>0.86543953225806447</v>
       </c>
-      <c r="E305" s="83">
+      <c r="E305" s="55">
         <f t="shared" ref="E305" si="34">AVERAGEIF($J205:$J304, "TAK", E205:E304)</f>
         <v>-3.166290322580644E-4</v>
       </c>
-      <c r="F305" s="83">
+      <c r="F305" s="55">
         <f t="shared" ref="F305" si="35">AVERAGEIF($J205:$J304, "TAK", F205:F304)</f>
         <v>8.547258064516126E-4</v>
       </c>
-      <c r="G305" s="83">
+      <c r="G305" s="55">
         <f t="shared" ref="G305" si="36">AVERAGEIF($J205:$J304, "TAK", G205:G304)</f>
         <v>1.8499999999999999E-5</v>
       </c>
-      <c r="H305" s="83">
+      <c r="H305" s="55">
         <f t="shared" ref="H305" si="37">AVERAGEIF($J205:$J304, "TAK", H205:H304)</f>
         <v>395.83870967741933</v>
       </c>
-      <c r="I305" s="83">
+      <c r="I305" s="55">
         <f t="shared" ref="I305" si="38">AVERAGEIF($J205:$J304, "TAK", I205:I304)</f>
         <v>26.322580645161292</v>
       </c>
-      <c r="J305" s="83">
+      <c r="J305" s="55">
         <f>COUNTIF(J205:J304, "TAK")</f>
         <v>62</v>
       </c>
-      <c r="K305" s="83">
+      <c r="K305" s="55">
         <f>AVERAGEIF($P205:$P304, "TAK", K205:K304)</f>
         <v>-4.7527272727272746E-5</v>
       </c>
-      <c r="L305" s="83">
+      <c r="L305" s="55">
         <f t="shared" ref="L305" si="39">AVERAGEIF($P205:$P304, "TAK", L205:L304)</f>
         <v>3.6803636363636356E-4</v>
       </c>
-      <c r="M305" s="83">
+      <c r="M305" s="55">
         <f t="shared" ref="M305" si="40">AVERAGEIF($P205:$P304, "TAK", M205:M304)</f>
         <v>1.3999999999999991E-6</v>
       </c>
-      <c r="N305" s="83">
+      <c r="N305" s="55">
         <f t="shared" ref="N305" si="41">AVERAGEIF($P205:$P304, "TAK", N205:N304)</f>
         <v>217</v>
       </c>
-      <c r="O305" s="83">
+      <c r="O305" s="55">
         <f t="shared" ref="O305" si="42">AVERAGEIF($P205:$P304, "TAK", O205:O304)</f>
         <v>41.2</v>
       </c>
-      <c r="P305" s="83">
+      <c r="P305" s="55">
         <f>COUNTIF(P205:P304, "TAK")</f>
         <v>55</v>
       </c>
-      <c r="Q305" s="83">
+      <c r="Q305" s="55">
         <f>AVERAGEIF($W205:$W304, "TAK", Q205:Q304)</f>
         <v>2.6184999999999997E-3</v>
       </c>
-      <c r="R305" s="83">
+      <c r="R305" s="55">
         <f t="shared" ref="R305" si="43">AVERAGEIF($W205:$W304, "TAK", R205:R304)</f>
         <v>7.7786249999999982E-3</v>
       </c>
-      <c r="S305" s="83">
+      <c r="S305" s="55">
         <f t="shared" ref="S305" si="44">AVERAGEIF($W205:$W304, "TAK", S205:S304)</f>
         <v>1.0329166666666667E-4</v>
       </c>
-      <c r="T305" s="83">
+      <c r="T305" s="55">
         <f t="shared" ref="T305" si="45">AVERAGEIF($W205:$W304, "TAK", T205:T304)</f>
         <v>647.875</v>
       </c>
-      <c r="U305" s="83">
+      <c r="U305" s="55">
         <f t="shared" ref="U305" si="46">AVERAGEIF($W205:$W304, "TAK", U205:U304)</f>
         <v>43.125</v>
       </c>
-      <c r="V305" s="83">
+      <c r="V305" s="55">
         <f t="shared" ref="V305" si="47">AVERAGEIF($W205:$W304, "TAK", V205:V304)</f>
         <v>43.125</v>
       </c>
-      <c r="W305" s="83">
+      <c r="W305" s="55">
         <f>COUNTIF(W205:W304, "TAK")</f>
         <v>24</v>
       </c>
@@ -39090,14 +39095,14 @@
       <formula>NOT(ISERROR(SEARCH("TAK",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y10">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="NIE">
-      <formula>NOT(ISERROR(SEARCH("NIE",Y10)))</formula>
+  <conditionalFormatting sqref="J1:J102 P1:P102 W1:W102 J104:J203 P104:P203 W104:W203 J205:J304 P205:P304 W205:W304 J306:J1048576 P306:P1048576 W306:W1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NIE">
+      <formula>NOT(ISERROR(SEARCH("NIE",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J102 P1:P102 W1:W102 W104:W203 P104:P203 J104:J203 J205:J304 P205:P304 W205:W304 W306:W1048576 P306:P1048576 J306:J1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="NIE">
-      <formula>NOT(ISERROR(SEARCH("NIE",J1)))</formula>
+  <conditionalFormatting sqref="Y10">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="NIE">
+      <formula>NOT(ISERROR(SEARCH("NIE",Y10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39128,37 +39133,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="64" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="60" t="s">
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="63"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="72"/>
     </row>
     <row r="2" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="66"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
@@ -39486,75 +39491,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="77" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="71" t="s">
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="73"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="82"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="74">
+      <c r="A2" s="63"/>
+      <c r="B2" s="83">
         <v>0.05</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84">
         <v>0.25</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="79">
+      <c r="G2" s="85"/>
+      <c r="H2" s="88">
         <v>0.05</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75">
+      <c r="I2" s="84"/>
+      <c r="J2" s="84">
         <v>0.25</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75" t="s">
+      <c r="K2" s="84"/>
+      <c r="L2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="80"/>
-      <c r="N2" s="74">
+      <c r="M2" s="89"/>
+      <c r="N2" s="83">
         <v>0.05</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75">
+      <c r="O2" s="84"/>
+      <c r="P2" s="84">
         <v>0.25</v>
       </c>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75" t="s">
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="76"/>
+      <c r="S2" s="85"/>
     </row>
     <row r="3" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="56"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="27" t="s">
         <v>3</v>
       </c>
@@ -41728,7 +41733,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41739,20 +41744,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="63"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="66"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="22" t="s">
         <v>16</v>
       </c>
@@ -41787,46 +41792,46 @@
       <c r="A4" s="30">
         <v>1E-3</v>
       </c>
-      <c r="B4" s="84">
-        <v>-2.12E-4</v>
-      </c>
-      <c r="C4" s="85">
-        <v>6.2890000000000003E-3</v>
-      </c>
-      <c r="D4" s="85">
-        <v>1.098E-2</v>
-      </c>
-      <c r="E4" s="85">
-        <v>0.53445600000000004</v>
-      </c>
-      <c r="F4" s="85">
+      <c r="B4" s="56">
+        <v>-9.9730279999999993</v>
+      </c>
+      <c r="C4" s="57">
+        <v>8.7595999999999993E-2</v>
+      </c>
+      <c r="D4" s="57">
+        <v>0.10861800000000001</v>
+      </c>
+      <c r="E4" s="57">
+        <v>0.273924</v>
+      </c>
+      <c r="F4" s="57">
         <v>0.7</v>
       </c>
-      <c r="G4" s="86">
-        <v>10</v>
+      <c r="G4" s="58">
+        <v>5705</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31">
         <v>1E-4</v>
       </c>
-      <c r="B5" s="87">
-        <v>7.4999999999999993E-5</v>
-      </c>
-      <c r="C5" s="88">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="D5" s="88">
-        <v>9.5340000000000008E-3</v>
-      </c>
-      <c r="E5" s="88">
-        <v>0.53512300000000002</v>
-      </c>
-      <c r="F5" s="88">
+      <c r="B5" s="59">
+        <v>-9.0899999999999998E-4</v>
+      </c>
+      <c r="C5" s="60">
+        <v>4.738E-3</v>
+      </c>
+      <c r="D5" s="60">
+        <v>1.485E-2</v>
+      </c>
+      <c r="E5" s="60">
+        <v>0.53155799999999997</v>
+      </c>
+      <c r="F5" s="60">
         <v>0.7</v>
       </c>
-      <c r="G5" s="89">
-        <v>16</v>
+      <c r="G5" s="61">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -41843,3246 +41848,3238 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3528A5E5-678E-4C7F-9CBD-F13F3DBED583}">
   <dimension ref="B3:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="90"/>
-  </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="87">
-        <v>7.4999999999999993E-5</v>
-      </c>
-      <c r="E4" s="88">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="F4" s="88">
-        <v>9.5340000000000008E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K9" s="90">
-        <v>80</v>
+      <c r="D4" s="59">
+        <v>-9.9730279999999993</v>
+      </c>
+      <c r="E4" s="60">
+        <v>8.7595999999999993E-2</v>
+      </c>
+      <c r="F4" s="60">
+        <v>0.10861800000000001</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F13" s="91">
-        <v>1</v>
-      </c>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91">
+      <c r="F13" s="90">
+        <v>1</v>
+      </c>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90">
         <v>0</v>
       </c>
-      <c r="I13" s="91"/>
-      <c r="J13" s="90" t="s">
+      <c r="I13" s="90"/>
+      <c r="J13" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="90" t="s">
+      <c r="K13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="90">
-        <v>1</v>
-      </c>
-      <c r="C14" s="90">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>57</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14">
         <v>68</v>
       </c>
-      <c r="E14" s="90">
-        <v>1</v>
-      </c>
-      <c r="F14" s="90" cm="1">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" cm="1">
         <f t="array" ref="F14:G14">IF(E14,C14:D14, NA())</f>
         <v>57</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G14">
         <v>68</v>
       </c>
-      <c r="H14" s="90" t="e" cm="1">
+      <c r="H14" t="e" cm="1">
         <f t="array" ref="H14">IF(E14=0,C14:D14,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J14" s="90">
+      <c r="J14">
         <v>57</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K14">
         <f>-($D$4+$E$4*C14)/$F$4+$K$9</f>
-        <v>30.967589679043428</v>
+        <v>45.849269918429719</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="90">
-        <v>1</v>
-      </c>
-      <c r="C15" s="90">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>86</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D15">
         <v>87</v>
       </c>
-      <c r="E15" s="90">
-        <v>1</v>
-      </c>
-      <c r="F15" s="90" cm="1">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" cm="1">
         <f t="array" ref="F15:G15">IF(E15,C15:D15, NA())</f>
         <v>86</v>
       </c>
-      <c r="G15" s="90">
+      <c r="G15">
         <v>87</v>
       </c>
-      <c r="H15" s="90" t="e" cm="1">
+      <c r="H15" t="e" cm="1">
         <f t="array" ref="H15">IF(E15=0,C15:D15,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J15" s="90">
+      <c r="J15">
         <v>86</v>
       </c>
-      <c r="K15" s="90">
+      <c r="K15">
         <f t="shared" ref="K15:K78" si="0">-($D$4+$E$4*C15)/$F$4+$K$9</f>
-        <v>6.0252779525907272</v>
+        <v>22.461949216520278</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="90">
-        <v>1</v>
-      </c>
-      <c r="C16" s="90">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>86</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16">
         <v>46</v>
       </c>
-      <c r="E16" s="90">
-        <v>1</v>
-      </c>
-      <c r="F16" s="90" cm="1">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" cm="1">
         <f t="array" ref="F16:G16">IF(E16,C16:D16, NA())</f>
         <v>86</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16">
         <v>46</v>
       </c>
-      <c r="H16" s="90" t="e" cm="1">
+      <c r="H16" t="e" cm="1">
         <f t="array" ref="H16">IF(E16=0,C16:D16,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J16" s="90">
+      <c r="J16">
         <v>86</v>
       </c>
-      <c r="K16" s="90">
+      <c r="K16">
         <f t="shared" si="0"/>
-        <v>6.0252779525907272</v>
+        <v>22.461949216520278</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="90">
-        <v>1</v>
-      </c>
-      <c r="C17" s="90">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>71</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17">
         <v>25</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="90" t="e" cm="1">
+      <c r="F17" t="e" cm="1">
         <f t="array" ref="F17">IF(E17,C17:D17, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H17" s="90" cm="1">
+      <c r="H17" cm="1">
         <f t="array" ref="H17:I17">IF(E17=0,C17:D17,NA())</f>
         <v>71</v>
       </c>
-      <c r="I17" s="90">
+      <c r="I17">
         <v>25</v>
       </c>
-      <c r="J17" s="90">
+      <c r="J17">
         <v>71</v>
       </c>
-      <c r="K17" s="90">
+      <c r="K17">
         <f t="shared" si="0"/>
-        <v>18.926473673169703</v>
+        <v>34.558839234749307</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="90">
-        <v>1</v>
-      </c>
-      <c r="C18" s="90">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>75</v>
       </c>
-      <c r="D18" s="90">
+      <c r="D18">
         <v>77</v>
       </c>
-      <c r="E18" s="90">
-        <v>1</v>
-      </c>
-      <c r="F18" s="90" cm="1">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" cm="1">
         <f t="array" ref="F18:G18">IF(E18,C18:D18, NA())</f>
         <v>75</v>
       </c>
-      <c r="G18" s="90">
+      <c r="G18">
         <v>77</v>
       </c>
-      <c r="H18" s="90" t="e" cm="1">
+      <c r="H18" t="e" cm="1">
         <f t="array" ref="H18">IF(E18=0,C18:D18,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J18" s="90">
+      <c r="J18">
         <v>75</v>
       </c>
-      <c r="K18" s="90">
+      <c r="K18">
         <f t="shared" si="0"/>
-        <v>15.486154814348637</v>
+        <v>31.333001896554897</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="90">
-        <v>1</v>
-      </c>
-      <c r="C19" s="90">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>84</v>
       </c>
-      <c r="D19" s="90">
+      <c r="D19">
         <v>53</v>
       </c>
-      <c r="E19" s="90">
-        <v>1</v>
-      </c>
-      <c r="F19" s="90" cm="1">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" cm="1">
         <f t="array" ref="F19:G19">IF(E19,C19:D19, NA())</f>
         <v>84</v>
       </c>
-      <c r="G19" s="90">
+      <c r="G19">
         <v>53</v>
       </c>
-      <c r="H19" s="90" t="e" cm="1">
+      <c r="H19" t="e" cm="1">
         <f t="array" ref="H19">IF(E19=0,C19:D19,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J19" s="90">
+      <c r="J19">
         <v>84</v>
       </c>
-      <c r="K19" s="90">
+      <c r="K19">
         <f t="shared" si="0"/>
-        <v>7.7454373820012563</v>
+        <v>24.074867885617479</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="90">
-        <v>1</v>
-      </c>
-      <c r="C20" s="90">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>89</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D20">
         <v>93</v>
       </c>
-      <c r="E20" s="90">
-        <v>1</v>
-      </c>
-      <c r="F20" s="90" cm="1">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" cm="1">
         <f t="array" ref="F20:G20">IF(E20,C20:D20, NA())</f>
         <v>89</v>
       </c>
-      <c r="G20" s="90">
+      <c r="G20">
         <v>93</v>
       </c>
-      <c r="H20" s="90" t="e" cm="1">
+      <c r="H20" t="e" cm="1">
         <f t="array" ref="H20">IF(E20=0,C20:D20,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J20" s="90">
+      <c r="J20">
         <v>89</v>
       </c>
-      <c r="K20" s="90">
+      <c r="K20">
         <f t="shared" si="0"/>
-        <v>3.4450388084749193</v>
+        <v>20.042571212874478</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="90">
-        <v>1</v>
-      </c>
-      <c r="C21" s="90">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>68</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21">
         <v>96</v>
       </c>
-      <c r="E21" s="90">
-        <v>1</v>
-      </c>
-      <c r="F21" s="90" cm="1">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" cm="1">
         <f t="array" ref="F21:G21">IF(E21,C21:D21, NA())</f>
         <v>68</v>
       </c>
-      <c r="G21" s="90">
+      <c r="G21">
         <v>96</v>
       </c>
-      <c r="H21" s="90" t="e" cm="1">
+      <c r="H21" t="e" cm="1">
         <f t="array" ref="H21">IF(E21=0,C21:D21,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J21" s="90">
+      <c r="J21">
         <v>68</v>
       </c>
-      <c r="K21" s="90">
+      <c r="K21">
         <f t="shared" si="0"/>
-        <v>21.506712817285496</v>
+        <v>36.978217238395104</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="90">
-        <v>1</v>
-      </c>
-      <c r="C22" s="90">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>50</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22">
         <v>34</v>
       </c>
-      <c r="E22" s="90">
+      <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="90" t="e" cm="1">
+      <c r="F22" t="e" cm="1">
         <f t="array" ref="F22">IF(E22,C22:D22, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H22" s="90" cm="1">
+      <c r="H22" cm="1">
         <f t="array" ref="H22:I22">IF(E22=0,C22:D22,NA())</f>
         <v>50</v>
       </c>
-      <c r="I22" s="90">
+      <c r="I22">
         <v>34</v>
       </c>
-      <c r="J22" s="90">
+      <c r="J22">
         <v>50</v>
       </c>
-      <c r="K22" s="90">
+      <c r="K22">
         <f t="shared" si="0"/>
-        <v>36.98814768198028</v>
+        <v>51.494485260269933</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="90">
-        <v>1</v>
-      </c>
-      <c r="C23" s="90">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>90</v>
       </c>
-      <c r="D23" s="90">
+      <c r="D23">
         <v>92</v>
       </c>
-      <c r="E23" s="90">
-        <v>1</v>
-      </c>
-      <c r="F23" s="90" cm="1">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" cm="1">
         <f t="array" ref="F23:G23">IF(E23,C23:D23, NA())</f>
         <v>90</v>
       </c>
-      <c r="G23" s="90">
+      <c r="G23">
         <v>92</v>
       </c>
-      <c r="H23" s="90" t="e" cm="1">
+      <c r="H23" t="e" cm="1">
         <f t="array" ref="H23">IF(E23=0,C23:D23,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J23" s="90">
+      <c r="J23">
         <v>90</v>
       </c>
-      <c r="K23" s="90">
+      <c r="K23">
         <f t="shared" si="0"/>
-        <v>2.5849590937696547</v>
+        <v>19.236111878325872</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="90">
-        <v>1</v>
-      </c>
-      <c r="C24" s="90">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>53</v>
       </c>
-      <c r="D24" s="90">
+      <c r="D24">
         <v>87</v>
       </c>
-      <c r="E24" s="90">
-        <v>1</v>
-      </c>
-      <c r="F24" s="90" cm="1">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" cm="1">
         <f t="array" ref="F24:G24">IF(E24,C24:D24, NA())</f>
         <v>53</v>
       </c>
-      <c r="G24" s="90">
+      <c r="G24">
         <v>87</v>
       </c>
-      <c r="H24" s="90" t="e" cm="1">
+      <c r="H24" t="e" cm="1">
         <f t="array" ref="H24">IF(E24=0,C24:D24,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J24" s="90">
+      <c r="J24">
         <v>53</v>
       </c>
-      <c r="K24" s="90">
+      <c r="K24">
         <f t="shared" si="0"/>
-        <v>34.407908537864486</v>
+        <v>49.075107256624122</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="90">
-        <v>1</v>
-      </c>
-      <c r="C25" s="90">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>40</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25">
         <v>49</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="90" t="e" cm="1">
+      <c r="F25" t="e" cm="1">
         <f t="array" ref="F25">IF(E25,C25:D25, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H25" s="90" cm="1">
+      <c r="H25" cm="1">
         <f t="array" ref="H25:I25">IF(E25=0,C25:D25,NA())</f>
         <v>40</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25">
         <v>49</v>
       </c>
-      <c r="J25" s="90">
+      <c r="J25">
         <v>40</v>
       </c>
-      <c r="K25" s="90">
+      <c r="K25">
         <f t="shared" si="0"/>
-        <v>45.58894482903294</v>
+        <v>59.559078605755943</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="90">
-        <v>1</v>
-      </c>
-      <c r="C26" s="90">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>40</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26">
         <v>68</v>
       </c>
-      <c r="E26" s="90">
-        <v>1</v>
-      </c>
-      <c r="F26" s="90" cm="1">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" cm="1">
         <f t="array" ref="F26:G26">IF(E26,C26:D26, NA())</f>
         <v>40</v>
       </c>
-      <c r="G26" s="90">
+      <c r="G26">
         <v>68</v>
       </c>
-      <c r="H26" s="90" t="e" cm="1">
+      <c r="H26" t="e" cm="1">
         <f t="array" ref="H26">IF(E26=0,C26:D26,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J26" s="90">
+      <c r="J26">
         <v>40</v>
       </c>
-      <c r="K26" s="90">
+      <c r="K26">
         <f t="shared" si="0"/>
-        <v>45.58894482903294</v>
+        <v>59.559078605755943</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="90">
-        <v>1</v>
-      </c>
-      <c r="C27" s="90">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>28</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27">
         <v>56</v>
       </c>
-      <c r="E27" s="90">
+      <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" s="90" t="e" cm="1">
+      <c r="F27" t="e" cm="1">
         <f t="array" ref="F27">IF(E27,C27:D27, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H27" s="90" cm="1">
+      <c r="H27" cm="1">
         <f t="array" ref="H27:I27">IF(E27=0,C27:D27,NA())</f>
         <v>28</v>
       </c>
-      <c r="I27" s="90">
+      <c r="I27">
         <v>56</v>
       </c>
-      <c r="J27" s="90">
+      <c r="J27">
         <v>28</v>
       </c>
-      <c r="K27" s="90">
+      <c r="K27">
         <f t="shared" si="0"/>
-        <v>55.909901405496115</v>
+        <v>69.236590620339157</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="90">
-        <v>1</v>
-      </c>
-      <c r="C28" s="90">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>97</v>
       </c>
-      <c r="D28" s="90">
+      <c r="D28">
         <v>88</v>
       </c>
-      <c r="E28" s="90">
-        <v>1</v>
-      </c>
-      <c r="F28" s="90" cm="1">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" cm="1">
         <f t="array" ref="F28:G28">IF(E28,C28:D28, NA())</f>
         <v>97</v>
       </c>
-      <c r="G28" s="90">
+      <c r="G28">
         <v>88</v>
       </c>
-      <c r="H28" s="90" t="e" cm="1">
+      <c r="H28" t="e" cm="1">
         <f t="array" ref="H28">IF(E28=0,C28:D28,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J28" s="90">
+      <c r="J28">
         <v>97</v>
       </c>
-      <c r="K28" s="90">
+      <c r="K28">
         <f t="shared" si="0"/>
-        <v>-3.4355989091671972</v>
+        <v>13.590896536485673</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="90">
-        <v>1</v>
-      </c>
-      <c r="C29" s="90">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>35</v>
       </c>
-      <c r="D29" s="90">
+      <c r="D29">
         <v>35</v>
       </c>
-      <c r="E29" s="90">
+      <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="90" t="e" cm="1">
+      <c r="F29" t="e" cm="1">
         <f t="array" ref="F29">IF(E29,C29:D29, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H29" s="90" cm="1">
+      <c r="H29" cm="1">
         <f t="array" ref="H29:I29">IF(E29=0,C29:D29,NA())</f>
         <v>35</v>
       </c>
-      <c r="I29" s="90">
+      <c r="I29">
         <v>35</v>
       </c>
-      <c r="J29" s="90">
+      <c r="J29">
         <v>35</v>
       </c>
-      <c r="K29" s="90">
+      <c r="K29">
         <f t="shared" si="0"/>
-        <v>49.889343402559263</v>
+        <v>63.591375278498951</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="90">
-        <v>1</v>
-      </c>
-      <c r="C30" s="90">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
         <v>59</v>
       </c>
-      <c r="D30" s="90">
+      <c r="D30">
         <v>80</v>
       </c>
-      <c r="E30" s="90">
-        <v>1</v>
-      </c>
-      <c r="F30" s="90" cm="1">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" cm="1">
         <f t="array" ref="F30:G30">IF(E30,C30:D30, NA())</f>
         <v>59</v>
       </c>
-      <c r="G30" s="90">
+      <c r="G30">
         <v>80</v>
       </c>
-      <c r="H30" s="90" t="e" cm="1">
+      <c r="H30" t="e" cm="1">
         <f t="array" ref="H30">IF(E30=0,C30:D30,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J30" s="90">
+      <c r="J30">
         <v>59</v>
       </c>
-      <c r="K30" s="90">
+      <c r="K30">
         <f t="shared" si="0"/>
-        <v>29.247430249632892</v>
+        <v>44.236351249332515</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="90">
-        <v>1</v>
-      </c>
-      <c r="C31" s="90">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>29</v>
       </c>
-      <c r="D31" s="90">
+      <c r="D31">
         <v>75</v>
       </c>
-      <c r="E31" s="90">
+      <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" s="90" t="e" cm="1">
+      <c r="F31" t="e" cm="1">
         <f t="array" ref="F31">IF(E31,C31:D31, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H31" s="90" cm="1">
+      <c r="H31" cm="1">
         <f t="array" ref="H31:I31">IF(E31=0,C31:D31,NA())</f>
         <v>29</v>
       </c>
-      <c r="I31" s="90">
+      <c r="I31">
         <v>75</v>
       </c>
-      <c r="J31" s="90">
+      <c r="J31">
         <v>29</v>
       </c>
-      <c r="K31" s="90">
+      <c r="K31">
         <f t="shared" si="0"/>
-        <v>55.049821690790857</v>
+        <v>68.430131285790566</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="90">
-        <v>1</v>
-      </c>
-      <c r="C32" s="90">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
         <v>44</v>
       </c>
-      <c r="D32" s="90">
+      <c r="D32">
         <v>30</v>
       </c>
-      <c r="E32" s="90">
+      <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" s="90" t="e" cm="1">
+      <c r="F32" t="e" cm="1">
         <f t="array" ref="F32">IF(E32,C32:D32, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H32" s="90" cm="1">
+      <c r="H32" cm="1">
         <f t="array" ref="H32:I32">IF(E32=0,C32:D32,NA())</f>
         <v>44</v>
       </c>
-      <c r="I32" s="90">
+      <c r="I32">
         <v>30</v>
       </c>
-      <c r="J32" s="90">
+      <c r="J32">
         <v>44</v>
       </c>
-      <c r="K32" s="90">
+      <c r="K32">
         <f t="shared" si="0"/>
-        <v>42.148625970211874</v>
+        <v>56.333241267561533</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="90">
-        <v>1</v>
-      </c>
-      <c r="C33" s="90">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
         <v>54</v>
       </c>
-      <c r="D33" s="90">
+      <c r="D33">
         <v>73</v>
       </c>
-      <c r="E33" s="90">
-        <v>1</v>
-      </c>
-      <c r="F33" s="90" cm="1">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" cm="1">
         <f t="array" ref="F33:G33">IF(E33,C33:D33, NA())</f>
         <v>54</v>
       </c>
-      <c r="G33" s="90">
+      <c r="G33">
         <v>73</v>
       </c>
-      <c r="H33" s="90" t="e" cm="1">
+      <c r="H33" t="e" cm="1">
         <f t="array" ref="H33">IF(E33=0,C33:D33,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J33" s="90">
+      <c r="J33">
         <v>54</v>
       </c>
-      <c r="K33" s="90">
+      <c r="K33">
         <f t="shared" si="0"/>
-        <v>33.547828823159222</v>
+        <v>48.268647922075523</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="90">
-        <v>1</v>
-      </c>
-      <c r="C34" s="90">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
         <v>22</v>
       </c>
-      <c r="D34" s="90">
+      <c r="D34">
         <v>77</v>
       </c>
-      <c r="E34" s="90">
+      <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="90" t="e" cm="1">
+      <c r="F34" t="e" cm="1">
         <f t="array" ref="F34">IF(E34,C34:D34, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H34" s="90" cm="1">
+      <c r="H34" cm="1">
         <f t="array" ref="H34:I34">IF(E34=0,C34:D34,NA())</f>
         <v>22</v>
       </c>
-      <c r="I34" s="90">
+      <c r="I34">
         <v>77</v>
       </c>
-      <c r="J34" s="90">
+      <c r="J34">
         <v>22</v>
       </c>
-      <c r="K34" s="90">
+      <c r="K34">
         <f t="shared" si="0"/>
-        <v>61.070379693727716</v>
+        <v>74.075346627630779</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="90">
-        <v>1</v>
-      </c>
-      <c r="C35" s="90">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
         <v>53</v>
       </c>
-      <c r="D35" s="90">
+      <c r="D35">
         <v>48</v>
       </c>
-      <c r="E35" s="90">
-        <v>1</v>
-      </c>
-      <c r="F35" s="90" cm="1">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" cm="1">
         <f t="array" ref="F35:G35">IF(E35,C35:D35, NA())</f>
         <v>53</v>
       </c>
-      <c r="G35" s="90">
+      <c r="G35">
         <v>48</v>
       </c>
-      <c r="H35" s="90" t="e" cm="1">
+      <c r="H35" t="e" cm="1">
         <f t="array" ref="H35">IF(E35=0,C35:D35,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J35" s="90">
+      <c r="J35">
         <v>53</v>
       </c>
-      <c r="K35" s="90">
+      <c r="K35">
         <f t="shared" si="0"/>
-        <v>34.407908537864486</v>
+        <v>49.075107256624122</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="90">
-        <v>1</v>
-      </c>
-      <c r="C36" s="90">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
         <v>66</v>
       </c>
-      <c r="D36" s="90">
+      <c r="D36">
         <v>42</v>
       </c>
-      <c r="E36" s="90">
-        <v>1</v>
-      </c>
-      <c r="F36" s="90" cm="1">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" cm="1">
         <f t="array" ref="F36:G36">IF(E36,C36:D36, NA())</f>
         <v>66</v>
       </c>
-      <c r="G36" s="90">
+      <c r="G36">
         <v>42</v>
       </c>
-      <c r="H36" s="90" t="e" cm="1">
+      <c r="H36" t="e" cm="1">
         <f t="array" ref="H36">IF(E36=0,C36:D36,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J36" s="90">
+      <c r="J36">
         <v>66</v>
       </c>
-      <c r="K36" s="90">
+      <c r="K36">
         <f t="shared" si="0"/>
-        <v>23.226872246696033</v>
+        <v>38.591135907492308</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="90">
-        <v>1</v>
-      </c>
-      <c r="C37" s="90">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
         <v>26</v>
       </c>
-      <c r="D37" s="90">
+      <c r="D37">
         <v>87</v>
       </c>
-      <c r="E37" s="90">
+      <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" s="90" t="e" cm="1">
+      <c r="F37" t="e" cm="1">
         <f t="array" ref="F37">IF(E37,C37:D37, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H37" s="90" cm="1">
+      <c r="H37" cm="1">
         <f t="array" ref="H37:I37">IF(E37=0,C37:D37,NA())</f>
         <v>26</v>
       </c>
-      <c r="I37" s="90">
+      <c r="I37">
         <v>87</v>
       </c>
-      <c r="J37" s="90">
+      <c r="J37">
         <v>26</v>
       </c>
-      <c r="K37" s="90">
+      <c r="K37">
         <f t="shared" si="0"/>
-        <v>57.630060834906651</v>
+        <v>70.849509289436369</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="90">
-        <v>1</v>
-      </c>
-      <c r="C38" s="90">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
         <v>43</v>
       </c>
-      <c r="D38" s="90">
+      <c r="D38">
         <v>67</v>
       </c>
-      <c r="E38" s="90">
-        <v>1</v>
-      </c>
-      <c r="F38" s="90" cm="1">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" cm="1">
         <f t="array" ref="F38:G38">IF(E38,C38:D38, NA())</f>
         <v>43</v>
       </c>
-      <c r="G38" s="90">
+      <c r="G38">
         <v>67</v>
       </c>
-      <c r="H38" s="90" t="e" cm="1">
+      <c r="H38" t="e" cm="1">
         <f t="array" ref="H38">IF(E38=0,C38:D38,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J38" s="90">
+      <c r="J38">
         <v>43</v>
       </c>
-      <c r="K38" s="90">
+      <c r="K38">
         <f t="shared" si="0"/>
-        <v>43.008705684917139</v>
+        <v>57.139700602110139</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="90">
-        <v>1</v>
-      </c>
-      <c r="C39" s="90">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
         <v>70</v>
       </c>
-      <c r="D39" s="90">
+      <c r="D39">
         <v>62</v>
       </c>
-      <c r="E39" s="90">
-        <v>1</v>
-      </c>
-      <c r="F39" s="90" cm="1">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" cm="1">
         <f t="array" ref="F39:G39">IF(E39,C39:D39, NA())</f>
         <v>70</v>
       </c>
-      <c r="G39" s="90">
+      <c r="G39">
         <v>62</v>
       </c>
-      <c r="H39" s="90" t="e" cm="1">
+      <c r="H39" t="e" cm="1">
         <f t="array" ref="H39">IF(E39=0,C39:D39,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J39" s="90">
+      <c r="J39">
         <v>70</v>
       </c>
-      <c r="K39" s="90">
+      <c r="K39">
         <f t="shared" si="0"/>
-        <v>19.786553387874967</v>
+        <v>35.365298569297899</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="90">
-        <v>1</v>
-      </c>
-      <c r="C40" s="90">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
         <v>100</v>
       </c>
-      <c r="D40" s="90">
+      <c r="D40">
         <v>96</v>
       </c>
-      <c r="E40" s="90">
-        <v>1</v>
-      </c>
-      <c r="F40" s="90" cm="1">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" cm="1">
         <f t="array" ref="F40:G40">IF(E40,C40:D40, NA())</f>
         <v>100</v>
       </c>
-      <c r="G40" s="90">
+      <c r="G40">
         <v>96</v>
       </c>
-      <c r="H40" s="90" t="e" cm="1">
+      <c r="H40" t="e" cm="1">
         <f t="array" ref="H40">IF(E40=0,C40:D40,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J40" s="90">
+      <c r="J40">
         <v>100</v>
       </c>
-      <c r="K40" s="90">
+      <c r="K40">
         <f t="shared" si="0"/>
-        <v>-6.0158380532829909</v>
+        <v>11.171518532839864</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="90">
-        <v>1</v>
-      </c>
-      <c r="C41" s="90">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
         <v>64</v>
       </c>
-      <c r="D41" s="90">
+      <c r="D41">
         <v>56</v>
       </c>
-      <c r="E41" s="90">
-        <v>1</v>
-      </c>
-      <c r="F41" s="90" cm="1">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" cm="1">
         <f t="array" ref="F41:G41">IF(E41,C41:D41, NA())</f>
         <v>64</v>
       </c>
-      <c r="G41" s="90">
+      <c r="G41">
         <v>56</v>
       </c>
-      <c r="H41" s="90" t="e" cm="1">
+      <c r="H41" t="e" cm="1">
         <f t="array" ref="H41">IF(E41=0,C41:D41,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J41" s="90">
+      <c r="J41">
         <v>64</v>
       </c>
-      <c r="K41" s="90">
+      <c r="K41">
         <f t="shared" si="0"/>
-        <v>24.947031676106562</v>
+        <v>40.204054576589513</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="90">
-        <v>1</v>
-      </c>
-      <c r="C42" s="90">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
         <v>79</v>
       </c>
-      <c r="D42" s="90">
+      <c r="D42">
         <v>82</v>
       </c>
-      <c r="E42" s="90">
-        <v>1</v>
-      </c>
-      <c r="F42" s="90" cm="1">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" cm="1">
         <f t="array" ref="F42:G42">IF(E42,C42:D42, NA())</f>
         <v>79</v>
       </c>
-      <c r="G42" s="90">
+      <c r="G42">
         <v>82</v>
       </c>
-      <c r="H42" s="90" t="e" cm="1">
+      <c r="H42" t="e" cm="1">
         <f t="array" ref="H42">IF(E42=0,C42:D42,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J42" s="90">
+      <c r="J42">
         <v>79</v>
       </c>
-      <c r="K42" s="90">
+      <c r="K42">
         <f t="shared" si="0"/>
-        <v>12.045835955527579</v>
+        <v>28.107164558360491</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="90">
-        <v>1</v>
-      </c>
-      <c r="C43" s="90">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
         <v>48</v>
       </c>
-      <c r="D43" s="90">
+      <c r="D43">
         <v>91</v>
       </c>
-      <c r="E43" s="90">
-        <v>1</v>
-      </c>
-      <c r="F43" s="90" cm="1">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" cm="1">
         <f t="array" ref="F43:G43">IF(E43,C43:D43, NA())</f>
         <v>48</v>
       </c>
-      <c r="G43" s="90">
+      <c r="G43">
         <v>91</v>
       </c>
-      <c r="H43" s="90" t="e" cm="1">
+      <c r="H43" t="e" cm="1">
         <f t="array" ref="H43">IF(E43=0,C43:D43,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J43" s="90">
+      <c r="J43">
         <v>48</v>
       </c>
-      <c r="K43" s="90">
+      <c r="K43">
         <f t="shared" si="0"/>
-        <v>38.708307111390809</v>
+        <v>53.107403929367138</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="90">
-        <v>1</v>
-      </c>
-      <c r="C44" s="90">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>82</v>
       </c>
-      <c r="D44" s="90">
+      <c r="D44">
         <v>79</v>
       </c>
-      <c r="E44" s="90">
-        <v>1</v>
-      </c>
-      <c r="F44" s="90" cm="1">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" cm="1">
         <f t="array" ref="F44:G44">IF(E44,C44:D44, NA())</f>
         <v>82</v>
       </c>
-      <c r="G44" s="90">
+      <c r="G44">
         <v>79</v>
       </c>
-      <c r="H44" s="90" t="e" cm="1">
+      <c r="H44" t="e" cm="1">
         <f t="array" ref="H44">IF(E44=0,C44:D44,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J44" s="90">
+      <c r="J44">
         <v>82</v>
       </c>
-      <c r="K44" s="90">
+      <c r="K44">
         <f t="shared" si="0"/>
-        <v>9.4655968114117854</v>
+        <v>25.687786554714684</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="90">
-        <v>1</v>
-      </c>
-      <c r="C45" s="90">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
         <v>44</v>
       </c>
-      <c r="D45" s="90">
+      <c r="D45">
         <v>52</v>
       </c>
-      <c r="E45" s="90">
-        <v>1</v>
-      </c>
-      <c r="F45" s="90" cm="1">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" cm="1">
         <f t="array" ref="F45:G45">IF(E45,C45:D45, NA())</f>
         <v>44</v>
       </c>
-      <c r="G45" s="90">
+      <c r="G45">
         <v>52</v>
       </c>
-      <c r="H45" s="90" t="e" cm="1">
+      <c r="H45" t="e" cm="1">
         <f t="array" ref="H45">IF(E45=0,C45:D45,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J45" s="90">
+      <c r="J45">
         <v>44</v>
       </c>
-      <c r="K45" s="90">
+      <c r="K45">
         <f t="shared" si="0"/>
-        <v>42.148625970211874</v>
+        <v>56.333241267561533</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="90">
-        <v>1</v>
-      </c>
-      <c r="C46" s="90">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
         <v>50</v>
       </c>
-      <c r="D46" s="90">
+      <c r="D46">
         <v>45</v>
       </c>
-      <c r="E46" s="90">
-        <v>1</v>
-      </c>
-      <c r="F46" s="90" cm="1">
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" cm="1">
         <f t="array" ref="F46:G46">IF(E46,C46:D46, NA())</f>
         <v>50</v>
       </c>
-      <c r="G46" s="90">
+      <c r="G46">
         <v>45</v>
       </c>
-      <c r="H46" s="90" t="e" cm="1">
+      <c r="H46" t="e" cm="1">
         <f t="array" ref="H46">IF(E46=0,C46:D46,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J46" s="90">
+      <c r="J46">
         <v>50</v>
       </c>
-      <c r="K46" s="90">
+      <c r="K46">
         <f t="shared" si="0"/>
-        <v>36.98814768198028</v>
+        <v>51.494485260269933</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="90">
-        <v>1</v>
-      </c>
-      <c r="C47" s="90">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
         <v>95</v>
       </c>
-      <c r="D47" s="90">
+      <c r="D47">
         <v>53</v>
       </c>
-      <c r="E47" s="90">
-        <v>1</v>
-      </c>
-      <c r="F47" s="90" cm="1">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" cm="1">
         <f t="array" ref="F47:G47">IF(E47,C47:D47, NA())</f>
         <v>95</v>
       </c>
-      <c r="G47" s="90">
+      <c r="G47">
         <v>53</v>
       </c>
-      <c r="H47" s="90" t="e" cm="1">
+      <c r="H47" t="e" cm="1">
         <f t="array" ref="H47">IF(E47=0,C47:D47,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J47" s="90">
+      <c r="J47">
         <v>95</v>
       </c>
-      <c r="K47" s="90">
+      <c r="K47">
         <f t="shared" si="0"/>
-        <v>-1.7154394797566681</v>
+        <v>15.203815205582867</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="90">
-        <v>1</v>
-      </c>
-      <c r="C48" s="90">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
         <v>28</v>
       </c>
-      <c r="D48" s="90">
+      <c r="D48">
         <v>45</v>
       </c>
-      <c r="E48" s="90">
+      <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48" s="90" t="e" cm="1">
+      <c r="F48" t="e" cm="1">
         <f t="array" ref="F48">IF(E48,C48:D48, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H48" s="90" cm="1">
+      <c r="H48" cm="1">
         <f t="array" ref="H48:I48">IF(E48=0,C48:D48,NA())</f>
         <v>28</v>
       </c>
-      <c r="I48" s="90">
+      <c r="I48">
         <v>45</v>
       </c>
-      <c r="J48" s="90">
+      <c r="J48">
         <v>28</v>
       </c>
-      <c r="K48" s="90">
+      <c r="K48">
         <f t="shared" si="0"/>
-        <v>55.909901405496115</v>
+        <v>69.236590620339157</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="90">
-        <v>1</v>
-      </c>
-      <c r="C49" s="90">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
         <v>37</v>
       </c>
-      <c r="D49" s="90">
+      <c r="D49">
         <v>38</v>
       </c>
-      <c r="E49" s="90">
+      <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49" s="90" t="e" cm="1">
+      <c r="F49" t="e" cm="1">
         <f t="array" ref="F49">IF(E49,C49:D49, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H49" s="90" cm="1">
+      <c r="H49" cm="1">
         <f t="array" ref="H49:I49">IF(E49=0,C49:D49,NA())</f>
         <v>37</v>
       </c>
-      <c r="I49" s="90">
+      <c r="I49">
         <v>38</v>
       </c>
-      <c r="J49" s="90">
+      <c r="J49">
         <v>37</v>
       </c>
-      <c r="K49" s="90">
+      <c r="K49">
         <f t="shared" si="0"/>
-        <v>48.169183973148733</v>
+        <v>61.978456609401746</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="90">
-        <v>1</v>
-      </c>
-      <c r="C50" s="90">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
         <v>71</v>
       </c>
-      <c r="D50" s="90">
+      <c r="D50">
         <v>81</v>
       </c>
-      <c r="E50" s="90">
-        <v>1</v>
-      </c>
-      <c r="F50" s="90" cm="1">
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" cm="1">
         <f t="array" ref="F50:G50">IF(E50,C50:D50, NA())</f>
         <v>71</v>
       </c>
-      <c r="G50" s="90">
+      <c r="G50">
         <v>81</v>
       </c>
-      <c r="H50" s="90" t="e" cm="1">
+      <c r="H50" t="e" cm="1">
         <f t="array" ref="H50">IF(E50=0,C50:D50,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J50" s="90">
+      <c r="J50">
         <v>71</v>
       </c>
-      <c r="K50" s="90">
+      <c r="K50">
         <f t="shared" si="0"/>
-        <v>18.926473673169703</v>
+        <v>34.558839234749307</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="90">
-        <v>1</v>
-      </c>
-      <c r="C51" s="90">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
         <v>26</v>
       </c>
-      <c r="D51" s="90">
+      <c r="D51">
         <v>34</v>
       </c>
-      <c r="E51" s="90">
+      <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" s="90" t="e" cm="1">
+      <c r="F51" t="e" cm="1">
         <f t="array" ref="F51">IF(E51,C51:D51, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H51" s="90" cm="1">
+      <c r="H51" cm="1">
         <f t="array" ref="H51:I51">IF(E51=0,C51:D51,NA())</f>
         <v>26</v>
       </c>
-      <c r="I51" s="90">
+      <c r="I51">
         <v>34</v>
       </c>
-      <c r="J51" s="90">
+      <c r="J51">
         <v>26</v>
       </c>
-      <c r="K51" s="90">
+      <c r="K51">
         <f t="shared" si="0"/>
-        <v>57.630060834906651</v>
+        <v>70.849509289436369</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="90">
-        <v>1</v>
-      </c>
-      <c r="C52" s="90">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
         <v>75</v>
       </c>
-      <c r="D52" s="90">
+      <c r="D52">
         <v>54</v>
       </c>
-      <c r="E52" s="90">
-        <v>1</v>
-      </c>
-      <c r="F52" s="90" cm="1">
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" cm="1">
         <f t="array" ref="F52:G52">IF(E52,C52:D52, NA())</f>
         <v>75</v>
       </c>
-      <c r="G52" s="90">
+      <c r="G52">
         <v>54</v>
       </c>
-      <c r="H52" s="90" t="e" cm="1">
+      <c r="H52" t="e" cm="1">
         <f t="array" ref="H52">IF(E52=0,C52:D52,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J52" s="90">
+      <c r="J52">
         <v>75</v>
       </c>
-      <c r="K52" s="90">
+      <c r="K52">
         <f t="shared" si="0"/>
-        <v>15.486154814348637</v>
+        <v>31.333001896554897</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="90">
-        <v>1</v>
-      </c>
-      <c r="C53" s="90">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
         <v>35</v>
       </c>
-      <c r="D53" s="90">
+      <c r="D53">
         <v>98</v>
       </c>
-      <c r="E53" s="90">
-        <v>1</v>
-      </c>
-      <c r="F53" s="90" cm="1">
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" cm="1">
         <f t="array" ref="F53:G53">IF(E53,C53:D53, NA())</f>
         <v>35</v>
       </c>
-      <c r="G53" s="90">
+      <c r="G53">
         <v>98</v>
       </c>
-      <c r="H53" s="90" t="e" cm="1">
+      <c r="H53" t="e" cm="1">
         <f t="array" ref="H53">IF(E53=0,C53:D53,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J53" s="90">
+      <c r="J53">
         <v>35</v>
       </c>
-      <c r="K53" s="90">
+      <c r="K53">
         <f t="shared" si="0"/>
-        <v>49.889343402559263</v>
+        <v>63.591375278498951</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="90">
-        <v>1</v>
-      </c>
-      <c r="C54" s="90">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
         <v>23</v>
       </c>
-      <c r="D54" s="90">
+      <c r="D54">
         <v>49</v>
       </c>
-      <c r="E54" s="90">
+      <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54" s="90" t="e" cm="1">
+      <c r="F54" t="e" cm="1">
         <f t="array" ref="F54">IF(E54,C54:D54, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H54" s="90" cm="1">
+      <c r="H54" cm="1">
         <f t="array" ref="H54:I54">IF(E54=0,C54:D54,NA())</f>
         <v>23</v>
       </c>
-      <c r="I54" s="90">
+      <c r="I54">
         <v>49</v>
       </c>
-      <c r="J54" s="90">
+      <c r="J54">
         <v>23</v>
       </c>
-      <c r="K54" s="90">
+      <c r="K54">
         <f t="shared" si="0"/>
-        <v>60.210299979022452</v>
+        <v>73.268887293082173</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="90">
-        <v>1</v>
-      </c>
-      <c r="C55" s="90">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
         <v>87</v>
       </c>
-      <c r="D55" s="90">
+      <c r="D55">
         <v>99</v>
       </c>
-      <c r="E55" s="90">
-        <v>1</v>
-      </c>
-      <c r="F55" s="90" cm="1">
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" cm="1">
         <f t="array" ref="F55:G55">IF(E55,C55:D55, NA())</f>
         <v>87</v>
       </c>
-      <c r="G55" s="90">
+      <c r="G55">
         <v>99</v>
       </c>
-      <c r="H55" s="90" t="e" cm="1">
+      <c r="H55" t="e" cm="1">
         <f t="array" ref="H55">IF(E55=0,C55:D55,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J55" s="90">
+      <c r="J55">
         <v>87</v>
       </c>
-      <c r="K55" s="90">
+      <c r="K55">
         <f t="shared" si="0"/>
-        <v>5.1651982378854626</v>
+        <v>21.655489881971679</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="90">
-        <v>1</v>
-      </c>
-      <c r="C56" s="90">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
         <v>92</v>
       </c>
-      <c r="D56" s="90">
+      <c r="D56">
         <v>76</v>
       </c>
-      <c r="E56" s="90">
-        <v>1</v>
-      </c>
-      <c r="F56" s="90" cm="1">
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" cm="1">
         <f t="array" ref="F56:G56">IF(E56,C56:D56, NA())</f>
         <v>92</v>
       </c>
-      <c r="G56" s="90">
+      <c r="G56">
         <v>76</v>
       </c>
-      <c r="H56" s="90" t="e" cm="1">
+      <c r="H56" t="e" cm="1">
         <f t="array" ref="H56">IF(E56=0,C56:D56,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J56" s="90">
+      <c r="J56">
         <v>92</v>
       </c>
-      <c r="K56" s="90">
+      <c r="K56">
         <f t="shared" si="0"/>
-        <v>0.86479966435912559</v>
+        <v>17.623193209228678</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="90">
-        <v>1</v>
-      </c>
-      <c r="C57" s="90">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
         <v>37</v>
       </c>
-      <c r="D57" s="90">
+      <c r="D57">
         <v>71</v>
       </c>
-      <c r="E57" s="90">
-        <v>1</v>
-      </c>
-      <c r="F57" s="90" cm="1">
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" cm="1">
         <f t="array" ref="F57:G57">IF(E57,C57:D57, NA())</f>
         <v>37</v>
       </c>
-      <c r="G57" s="90">
+      <c r="G57">
         <v>71</v>
       </c>
-      <c r="H57" s="90" t="e" cm="1">
+      <c r="H57" t="e" cm="1">
         <f t="array" ref="H57">IF(E57=0,C57:D57,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J57" s="90">
+      <c r="J57">
         <v>37</v>
       </c>
-      <c r="K57" s="90">
+      <c r="K57">
         <f t="shared" si="0"/>
-        <v>48.169183973148733</v>
+        <v>61.978456609401746</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="90">
-        <v>1</v>
-      </c>
-      <c r="C58" s="90">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
         <v>45</v>
       </c>
-      <c r="D58" s="90">
+      <c r="D58">
         <v>74</v>
       </c>
-      <c r="E58" s="90">
-        <v>1</v>
-      </c>
-      <c r="F58" s="90" cm="1">
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" cm="1">
         <f t="array" ref="F58:G58">IF(E58,C58:D58, NA())</f>
         <v>45</v>
       </c>
-      <c r="G58" s="90">
+      <c r="G58">
         <v>74</v>
       </c>
-      <c r="H58" s="90" t="e" cm="1">
+      <c r="H58" t="e" cm="1">
         <f t="array" ref="H58">IF(E58=0,C58:D58,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J58" s="90">
+      <c r="J58">
         <v>45</v>
       </c>
-      <c r="K58" s="90">
+      <c r="K58">
         <f t="shared" si="0"/>
-        <v>41.28854625550661</v>
+        <v>55.526781933012934</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="90">
-        <v>1</v>
-      </c>
-      <c r="C59" s="90">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
         <v>42</v>
       </c>
-      <c r="D59" s="90">
+      <c r="D59">
         <v>59</v>
       </c>
-      <c r="E59" s="90">
-        <v>1</v>
-      </c>
-      <c r="F59" s="90" cm="1">
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" cm="1">
         <f t="array" ref="F59:G59">IF(E59,C59:D59, NA())</f>
         <v>42</v>
       </c>
-      <c r="G59" s="90">
+      <c r="G59">
         <v>59</v>
       </c>
-      <c r="H59" s="90" t="e" cm="1">
+      <c r="H59" t="e" cm="1">
         <f t="array" ref="H59">IF(E59=0,C59:D59,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J59" s="90">
+      <c r="J59">
         <v>42</v>
       </c>
-      <c r="K59" s="90">
+      <c r="K59">
         <f t="shared" si="0"/>
-        <v>43.868785399622404</v>
+        <v>57.946159936658745</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="90">
-        <v>1</v>
-      </c>
-      <c r="C60" s="90">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
         <v>31</v>
       </c>
-      <c r="D60" s="90">
+      <c r="D60">
         <v>45</v>
       </c>
-      <c r="E60" s="90">
+      <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60" s="90" t="e" cm="1">
+      <c r="F60" t="e" cm="1">
         <f t="array" ref="F60">IF(E60,C60:D60, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H60" s="90" cm="1">
+      <c r="H60" cm="1">
         <f t="array" ref="H60:I60">IF(E60=0,C60:D60,NA())</f>
         <v>31</v>
       </c>
-      <c r="I60" s="90">
+      <c r="I60">
         <v>45</v>
       </c>
-      <c r="J60" s="90">
+      <c r="J60">
         <v>31</v>
       </c>
-      <c r="K60" s="90">
+      <c r="K60">
         <f t="shared" si="0"/>
-        <v>53.329662261380321</v>
+        <v>66.817212616693354</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="90">
-        <v>1</v>
-      </c>
-      <c r="C61" s="90">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
         <v>47</v>
       </c>
-      <c r="D61" s="90">
+      <c r="D61">
         <v>52</v>
       </c>
-      <c r="E61" s="90">
-        <v>1</v>
-      </c>
-      <c r="F61" s="90" cm="1">
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" cm="1">
         <f t="array" ref="F61:G61">IF(E61,C61:D61, NA())</f>
         <v>47</v>
       </c>
-      <c r="G61" s="90">
+      <c r="G61">
         <v>52</v>
       </c>
-      <c r="H61" s="90" t="e" cm="1">
+      <c r="H61" t="e" cm="1">
         <f t="array" ref="H61">IF(E61=0,C61:D61,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J61" s="90">
+      <c r="J61">
         <v>47</v>
       </c>
-      <c r="K61" s="90">
+      <c r="K61">
         <f t="shared" si="0"/>
-        <v>39.568386826096081</v>
+        <v>53.913863263915736</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="90">
-        <v>1</v>
-      </c>
-      <c r="C62" s="90">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
         <v>68</v>
       </c>
-      <c r="D62" s="90">
+      <c r="D62">
         <v>66</v>
       </c>
-      <c r="E62" s="90">
-        <v>1</v>
-      </c>
-      <c r="F62" s="90" cm="1">
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" cm="1">
         <f t="array" ref="F62:G62">IF(E62,C62:D62, NA())</f>
         <v>68</v>
       </c>
-      <c r="G62" s="90">
+      <c r="G62">
         <v>66</v>
       </c>
-      <c r="H62" s="90" t="e" cm="1">
+      <c r="H62" t="e" cm="1">
         <f t="array" ref="H62">IF(E62=0,C62:D62,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J62" s="90">
+      <c r="J62">
         <v>68</v>
       </c>
-      <c r="K62" s="90">
+      <c r="K62">
         <f t="shared" si="0"/>
-        <v>21.506712817285496</v>
+        <v>36.978217238395104</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="90">
-        <v>1</v>
-      </c>
-      <c r="C63" s="90">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
         <v>76</v>
       </c>
-      <c r="D63" s="90">
+      <c r="D63">
         <v>49</v>
       </c>
-      <c r="E63" s="90">
-        <v>1</v>
-      </c>
-      <c r="F63" s="90" cm="1">
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" cm="1">
         <f t="array" ref="F63:G63">IF(E63,C63:D63, NA())</f>
         <v>76</v>
       </c>
-      <c r="G63" s="90">
+      <c r="G63">
         <v>49</v>
       </c>
-      <c r="H63" s="90" t="e" cm="1">
+      <c r="H63" t="e" cm="1">
         <f t="array" ref="H63">IF(E63=0,C63:D63,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J63" s="90">
+      <c r="J63">
         <v>76</v>
       </c>
-      <c r="K63" s="90">
+      <c r="K63">
         <f t="shared" si="0"/>
-        <v>14.626075099643373</v>
+        <v>30.526542562006291</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="90">
-        <v>1</v>
-      </c>
-      <c r="C64" s="90">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
         <v>86</v>
       </c>
-      <c r="D64" s="90">
+      <c r="D64">
         <v>51</v>
       </c>
-      <c r="E64" s="90">
-        <v>1</v>
-      </c>
-      <c r="F64" s="90" cm="1">
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" cm="1">
         <f t="array" ref="F64:G64">IF(E64,C64:D64, NA())</f>
         <v>86</v>
       </c>
-      <c r="G64" s="90">
+      <c r="G64">
         <v>51</v>
       </c>
-      <c r="H64" s="90" t="e" cm="1">
+      <c r="H64" t="e" cm="1">
         <f t="array" ref="H64">IF(E64=0,C64:D64,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J64" s="90">
+      <c r="J64">
         <v>86</v>
       </c>
-      <c r="K64" s="90">
+      <c r="K64">
         <f t="shared" si="0"/>
-        <v>6.0252779525907272</v>
+        <v>22.461949216520278</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="90">
-        <v>1</v>
-      </c>
-      <c r="C65" s="90">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
         <v>60</v>
       </c>
-      <c r="D65" s="90">
+      <c r="D65">
         <v>93</v>
       </c>
-      <c r="E65" s="90">
-        <v>1</v>
-      </c>
-      <c r="F65" s="90" cm="1">
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" cm="1">
         <f t="array" ref="F65:G65">IF(E65,C65:D65, NA())</f>
         <v>60</v>
       </c>
-      <c r="G65" s="90">
+      <c r="G65">
         <v>93</v>
       </c>
-      <c r="H65" s="90" t="e" cm="1">
+      <c r="H65" t="e" cm="1">
         <f t="array" ref="H65">IF(E65=0,C65:D65,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J65" s="90">
+      <c r="J65">
         <v>60</v>
       </c>
-      <c r="K65" s="90">
+      <c r="K65">
         <f t="shared" si="0"/>
-        <v>28.387350534927627</v>
+        <v>43.429891914783916</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="90">
-        <v>1</v>
-      </c>
-      <c r="C66" s="90">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
         <v>33</v>
       </c>
-      <c r="D66" s="90">
+      <c r="D66">
         <v>70</v>
       </c>
-      <c r="E66" s="90">
+      <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66" s="90" t="e" cm="1">
+      <c r="F66" t="e" cm="1">
         <f t="array" ref="F66">IF(E66,C66:D66, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H66" s="90" cm="1">
+      <c r="H66" cm="1">
         <f t="array" ref="H66:I66">IF(E66=0,C66:D66,NA())</f>
         <v>33</v>
       </c>
-      <c r="I66" s="90">
+      <c r="I66">
         <v>70</v>
       </c>
-      <c r="J66" s="90">
+      <c r="J66">
         <v>33</v>
       </c>
-      <c r="K66" s="90">
+      <c r="K66">
         <f t="shared" si="0"/>
-        <v>51.609502831969792</v>
+        <v>65.204293947596156</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="90">
-        <v>1</v>
-      </c>
-      <c r="C67" s="90">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
         <v>56</v>
       </c>
-      <c r="D67" s="90">
+      <c r="D67">
         <v>37</v>
       </c>
-      <c r="E67" s="90">
-        <v>1</v>
-      </c>
-      <c r="F67" s="90" cm="1">
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" cm="1">
         <f t="array" ref="F67:G67">IF(E67,C67:D67, NA())</f>
         <v>56</v>
       </c>
-      <c r="G67" s="90">
+      <c r="G67">
         <v>37</v>
       </c>
-      <c r="H67" s="90" t="e" cm="1">
+      <c r="H67" t="e" cm="1">
         <f t="array" ref="H67">IF(E67=0,C67:D67,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J67" s="90">
+      <c r="J67">
         <v>56</v>
       </c>
-      <c r="K67" s="90">
+      <c r="K67">
         <f t="shared" si="0"/>
-        <v>31.827669393748685</v>
+        <v>46.655729252978325</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="90">
-        <v>1</v>
-      </c>
-      <c r="C68" s="90">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
         <v>78</v>
       </c>
-      <c r="D68" s="90">
+      <c r="D68">
         <v>25</v>
       </c>
-      <c r="E68" s="90">
+      <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68" s="90" t="e" cm="1">
+      <c r="F68" t="e" cm="1">
         <f t="array" ref="F68">IF(E68,C68:D68, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H68" s="90" cm="1">
+      <c r="H68" cm="1">
         <f t="array" ref="H68:I68">IF(E68=0,C68:D68,NA())</f>
         <v>78</v>
       </c>
-      <c r="I68" s="90">
+      <c r="I68">
         <v>25</v>
       </c>
-      <c r="J68" s="90">
+      <c r="J68">
         <v>78</v>
       </c>
-      <c r="K68" s="90">
+      <c r="K68">
         <f t="shared" si="0"/>
-        <v>12.905915670232844</v>
+        <v>28.91362389290909</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="90">
-        <v>1</v>
-      </c>
-      <c r="C69" s="90">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
         <v>51</v>
       </c>
-      <c r="D69" s="90">
+      <c r="D69">
         <v>71</v>
       </c>
-      <c r="E69" s="90">
-        <v>1</v>
-      </c>
-      <c r="F69" s="90" cm="1">
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" cm="1">
         <f t="array" ref="F69:G69">IF(E69,C69:D69, NA())</f>
         <v>51</v>
       </c>
-      <c r="G69" s="90">
+      <c r="G69">
         <v>71</v>
       </c>
-      <c r="H69" s="90" t="e" cm="1">
+      <c r="H69" t="e" cm="1">
         <f t="array" ref="H69">IF(E69=0,C69:D69,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J69" s="90">
+      <c r="J69">
         <v>51</v>
       </c>
-      <c r="K69" s="90">
+      <c r="K69">
         <f t="shared" si="0"/>
-        <v>36.128067967275015</v>
+        <v>50.688025925721327</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="90">
-        <v>1</v>
-      </c>
-      <c r="C70" s="90">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
         <v>40</v>
       </c>
-      <c r="D70" s="90">
+      <c r="D70">
         <v>99</v>
       </c>
-      <c r="E70" s="90">
-        <v>1</v>
-      </c>
-      <c r="F70" s="90" cm="1">
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" cm="1">
         <f t="array" ref="F70:G70">IF(E70,C70:D70, NA())</f>
         <v>40</v>
       </c>
-      <c r="G70" s="90">
+      <c r="G70">
         <v>99</v>
       </c>
-      <c r="H70" s="90" t="e" cm="1">
+      <c r="H70" t="e" cm="1">
         <f t="array" ref="H70">IF(E70=0,C70:D70,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J70" s="90">
+      <c r="J70">
         <v>40</v>
       </c>
-      <c r="K70" s="90">
+      <c r="K70">
         <f t="shared" si="0"/>
-        <v>45.58894482903294</v>
+        <v>59.559078605755943</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="90">
-        <v>1</v>
-      </c>
-      <c r="C71" s="90">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
         <v>36</v>
       </c>
-      <c r="D71" s="90">
+      <c r="D71">
         <v>55</v>
       </c>
-      <c r="E71" s="90">
+      <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71" s="90" t="e" cm="1">
+      <c r="F71" t="e" cm="1">
         <f t="array" ref="F71">IF(E71,C71:D71, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H71" s="90" cm="1">
+      <c r="H71" cm="1">
         <f t="array" ref="H71:I71">IF(E71=0,C71:D71,NA())</f>
         <v>36</v>
       </c>
-      <c r="I71" s="90">
+      <c r="I71">
         <v>55</v>
       </c>
-      <c r="J71" s="90">
+      <c r="J71">
         <v>36</v>
       </c>
-      <c r="K71" s="90">
+      <c r="K71">
         <f t="shared" si="0"/>
-        <v>49.029263687853998</v>
+        <v>62.784915943950345</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="90">
-        <v>1</v>
-      </c>
-      <c r="C72" s="90">
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
         <v>51</v>
       </c>
-      <c r="D72" s="90">
+      <c r="D72">
         <v>38</v>
       </c>
-      <c r="E72" s="90">
-        <v>1</v>
-      </c>
-      <c r="F72" s="90" cm="1">
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" cm="1">
         <f t="array" ref="F72:G72">IF(E72,C72:D72, NA())</f>
         <v>51</v>
       </c>
-      <c r="G72" s="90">
+      <c r="G72">
         <v>38</v>
       </c>
-      <c r="H72" s="90" t="e" cm="1">
+      <c r="H72" t="e" cm="1">
         <f t="array" ref="H72">IF(E72=0,C72:D72,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J72" s="90">
+      <c r="J72">
         <v>51</v>
       </c>
-      <c r="K72" s="90">
+      <c r="K72">
         <f t="shared" si="0"/>
-        <v>36.128067967275015</v>
+        <v>50.688025925721327</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="90">
-        <v>1</v>
-      </c>
-      <c r="C73" s="90">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
         <v>46</v>
       </c>
-      <c r="D73" s="90">
+      <c r="D73">
         <v>100</v>
       </c>
-      <c r="E73" s="90">
-        <v>1</v>
-      </c>
-      <c r="F73" s="90" cm="1">
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" cm="1">
         <f t="array" ref="F73:G73">IF(E73,C73:D73, NA())</f>
         <v>46</v>
       </c>
-      <c r="G73" s="90">
+      <c r="G73">
         <v>100</v>
       </c>
-      <c r="H73" s="90" t="e" cm="1">
+      <c r="H73" t="e" cm="1">
         <f t="array" ref="H73">IF(E73=0,C73:D73,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J73" s="90">
+      <c r="J73">
         <v>46</v>
       </c>
-      <c r="K73" s="90">
+      <c r="K73">
         <f t="shared" si="0"/>
-        <v>40.428466540801345</v>
+        <v>54.720322598464335</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="90">
-        <v>1</v>
-      </c>
-      <c r="C74" s="90">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
         <v>36</v>
       </c>
-      <c r="D74" s="90">
+      <c r="D74">
         <v>49</v>
       </c>
-      <c r="E74" s="90">
+      <c r="E74">
         <v>0</v>
       </c>
-      <c r="F74" s="90" t="e" cm="1">
+      <c r="F74" t="e" cm="1">
         <f t="array" ref="F74">IF(E74,C74:D74, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H74" s="90" cm="1">
+      <c r="H74" cm="1">
         <f t="array" ref="H74:I74">IF(E74=0,C74:D74,NA())</f>
         <v>36</v>
       </c>
-      <c r="I74" s="90">
+      <c r="I74">
         <v>49</v>
       </c>
-      <c r="J74" s="90">
+      <c r="J74">
         <v>36</v>
       </c>
-      <c r="K74" s="90">
+      <c r="K74">
         <f t="shared" si="0"/>
-        <v>49.029263687853998</v>
+        <v>62.784915943950345</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="90">
-        <v>1</v>
-      </c>
-      <c r="C75" s="90">
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
         <v>38</v>
       </c>
-      <c r="D75" s="90">
+      <c r="D75">
         <v>56</v>
       </c>
-      <c r="E75" s="90">
+      <c r="E75">
         <v>0</v>
       </c>
-      <c r="F75" s="90" t="e" cm="1">
+      <c r="F75" t="e" cm="1">
         <f t="array" ref="F75">IF(E75,C75:D75, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H75" s="90" cm="1">
+      <c r="H75" cm="1">
         <f t="array" ref="H75:I75">IF(E75=0,C75:D75,NA())</f>
         <v>38</v>
       </c>
-      <c r="I75" s="90">
+      <c r="I75">
         <v>56</v>
       </c>
-      <c r="J75" s="90">
+      <c r="J75">
         <v>38</v>
       </c>
-      <c r="K75" s="90">
+      <c r="K75">
         <f t="shared" si="0"/>
-        <v>47.309104258443462</v>
+        <v>61.171997274853155</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="90">
-        <v>1</v>
-      </c>
-      <c r="C76" s="90">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
         <v>96</v>
       </c>
-      <c r="D76" s="90">
+      <c r="D76">
         <v>46</v>
       </c>
-      <c r="E76" s="90">
-        <v>1</v>
-      </c>
-      <c r="F76" s="90" cm="1">
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" cm="1">
         <f t="array" ref="F76:G76">IF(E76,C76:D76, NA())</f>
         <v>96</v>
       </c>
-      <c r="G76" s="90">
+      <c r="G76">
         <v>46</v>
       </c>
-      <c r="H76" s="90" t="e" cm="1">
+      <c r="H76" t="e" cm="1">
         <f t="array" ref="H76">IF(E76=0,C76:D76,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J76" s="90">
+      <c r="J76">
         <v>96</v>
       </c>
-      <c r="K76" s="90">
+      <c r="K76">
         <f t="shared" si="0"/>
-        <v>-2.5755191944619327</v>
+        <v>14.39735587103427</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="90">
-        <v>1</v>
-      </c>
-      <c r="C77" s="90">
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
         <v>97</v>
       </c>
-      <c r="D77" s="90">
+      <c r="D77">
         <v>26</v>
       </c>
-      <c r="E77" s="90">
+      <c r="E77">
         <v>0</v>
       </c>
-      <c r="F77" s="90" t="e" cm="1">
+      <c r="F77" t="e" cm="1">
         <f t="array" ref="F77">IF(E77,C77:D77, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H77" s="90" cm="1">
+      <c r="H77" cm="1">
         <f t="array" ref="H77:I77">IF(E77=0,C77:D77,NA())</f>
         <v>97</v>
       </c>
-      <c r="I77" s="90">
+      <c r="I77">
         <v>26</v>
       </c>
-      <c r="J77" s="90">
+      <c r="J77">
         <v>97</v>
       </c>
-      <c r="K77" s="90">
+      <c r="K77">
         <f t="shared" si="0"/>
-        <v>-3.4355989091671972</v>
+        <v>13.590896536485673</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="90">
-        <v>1</v>
-      </c>
-      <c r="C78" s="90">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
         <v>95</v>
       </c>
-      <c r="D78" s="90">
+      <c r="D78">
         <v>21</v>
       </c>
-      <c r="E78" s="90">
+      <c r="E78">
         <v>0</v>
       </c>
-      <c r="F78" s="90" t="e" cm="1">
+      <c r="F78" t="e" cm="1">
         <f t="array" ref="F78">IF(E78,C78:D78, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H78" s="90" cm="1">
+      <c r="H78" cm="1">
         <f t="array" ref="H78:I78">IF(E78=0,C78:D78,NA())</f>
         <v>95</v>
       </c>
-      <c r="I78" s="90">
+      <c r="I78">
         <v>21</v>
       </c>
-      <c r="J78" s="90">
+      <c r="J78">
         <v>95</v>
       </c>
-      <c r="K78" s="90">
+      <c r="K78">
         <f t="shared" si="0"/>
-        <v>-1.7154394797566681</v>
+        <v>15.203815205582867</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="90">
-        <v>1</v>
-      </c>
-      <c r="C79" s="90">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
         <v>54</v>
       </c>
-      <c r="D79" s="90">
+      <c r="D79">
         <v>34</v>
       </c>
-      <c r="E79" s="90">
+      <c r="E79">
         <v>0</v>
       </c>
-      <c r="F79" s="90" t="e" cm="1">
+      <c r="F79" t="e" cm="1">
         <f t="array" ref="F79">IF(E79,C79:D79, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H79" s="90" cm="1">
+      <c r="H79" cm="1">
         <f t="array" ref="H79:I79">IF(E79=0,C79:D79,NA())</f>
         <v>54</v>
       </c>
-      <c r="I79" s="90">
+      <c r="I79">
         <v>34</v>
       </c>
-      <c r="J79" s="90">
+      <c r="J79">
         <v>54</v>
       </c>
-      <c r="K79" s="90">
+      <c r="K79">
         <f t="shared" ref="K79:K113" si="1">-($D$4+$E$4*C79)/$F$4+$K$9</f>
-        <v>33.547828823159222</v>
+        <v>48.268647922075523</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="90">
-        <v>1</v>
-      </c>
-      <c r="C80" s="90">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
         <v>34</v>
       </c>
-      <c r="D80" s="90">
+      <c r="D80">
         <v>87</v>
       </c>
-      <c r="E80" s="90">
-        <v>1</v>
-      </c>
-      <c r="F80" s="90" cm="1">
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" cm="1">
         <f t="array" ref="F80:G80">IF(E80,C80:D80, NA())</f>
         <v>34</v>
       </c>
-      <c r="G80" s="90">
+      <c r="G80">
         <v>87</v>
       </c>
-      <c r="H80" s="90" t="e" cm="1">
+      <c r="H80" t="e" cm="1">
         <f t="array" ref="H80">IF(E80=0,C80:D80,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J80" s="90">
+      <c r="J80">
         <v>34</v>
       </c>
-      <c r="K80" s="90">
+      <c r="K80">
         <f t="shared" si="1"/>
-        <v>50.749423117264527</v>
+        <v>64.397834613047564</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="90">
-        <v>1</v>
-      </c>
-      <c r="C81" s="90">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
         <v>94</v>
       </c>
-      <c r="D81" s="90">
+      <c r="D81">
         <v>25</v>
       </c>
-      <c r="E81" s="90">
+      <c r="E81">
         <v>0</v>
       </c>
-      <c r="F81" s="90" t="e" cm="1">
+      <c r="F81" t="e" cm="1">
         <f t="array" ref="F81">IF(E81,C81:D81, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H81" s="90" cm="1">
+      <c r="H81" cm="1">
         <f t="array" ref="H81:I81">IF(E81=0,C81:D81,NA())</f>
         <v>94</v>
       </c>
-      <c r="I81" s="90">
+      <c r="I81">
         <v>25</v>
       </c>
-      <c r="J81" s="90">
+      <c r="J81">
         <v>94</v>
       </c>
-      <c r="K81" s="90">
+      <c r="K81">
         <f t="shared" si="1"/>
-        <v>-0.85535976505140354</v>
+        <v>16.010274540131466</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="90">
-        <v>1</v>
-      </c>
-      <c r="C82" s="90">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
         <v>65</v>
       </c>
-      <c r="D82" s="90">
+      <c r="D82">
         <v>27</v>
       </c>
-      <c r="E82" s="90">
+      <c r="E82">
         <v>0</v>
       </c>
-      <c r="F82" s="90" t="e" cm="1">
+      <c r="F82" t="e" cm="1">
         <f t="array" ref="F82">IF(E82,C82:D82, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H82" s="90" cm="1">
+      <c r="H82" cm="1">
         <f t="array" ref="H82:I82">IF(E82=0,C82:D82,NA())</f>
         <v>65</v>
       </c>
-      <c r="I82" s="90">
+      <c r="I82">
         <v>27</v>
       </c>
-      <c r="J82" s="90">
+      <c r="J82">
         <v>65</v>
       </c>
-      <c r="K82" s="90">
+      <c r="K82">
         <f t="shared" si="1"/>
-        <v>24.086951961401297</v>
+        <v>39.397595242040914</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="90">
-        <v>1</v>
-      </c>
-      <c r="C83" s="90">
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
         <v>97</v>
       </c>
-      <c r="D83" s="90">
+      <c r="D83">
         <v>82</v>
       </c>
-      <c r="E83" s="90">
-        <v>1</v>
-      </c>
-      <c r="F83" s="90" cm="1">
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" cm="1">
         <f t="array" ref="F83:G83">IF(E83,C83:D83, NA())</f>
         <v>97</v>
       </c>
-      <c r="G83" s="90">
+      <c r="G83">
         <v>82</v>
       </c>
-      <c r="H83" s="90" t="e" cm="1">
+      <c r="H83" t="e" cm="1">
         <f t="array" ref="H83">IF(E83=0,C83:D83,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J83" s="90">
+      <c r="J83">
         <v>97</v>
       </c>
-      <c r="K83" s="90">
+      <c r="K83">
         <f t="shared" si="1"/>
-        <v>-3.4355989091671972</v>
+        <v>13.590896536485673</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="90">
-        <v>1</v>
-      </c>
-      <c r="C84" s="90">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
         <v>51</v>
       </c>
-      <c r="D84" s="90">
+      <c r="D84">
         <v>98</v>
       </c>
-      <c r="E84" s="90">
-        <v>1</v>
-      </c>
-      <c r="F84" s="90" cm="1">
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" cm="1">
         <f t="array" ref="F84:G84">IF(E84,C84:D84, NA())</f>
         <v>51</v>
       </c>
-      <c r="G84" s="90">
+      <c r="G84">
         <v>98</v>
       </c>
-      <c r="H84" s="90" t="e" cm="1">
+      <c r="H84" t="e" cm="1">
         <f t="array" ref="H84">IF(E84=0,C84:D84,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J84" s="90">
+      <c r="J84">
         <v>51</v>
       </c>
-      <c r="K84" s="90">
+      <c r="K84">
         <f t="shared" si="1"/>
-        <v>36.128067967275015</v>
+        <v>50.688025925721327</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="90">
-        <v>1</v>
-      </c>
-      <c r="C85" s="90">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
         <v>37</v>
       </c>
-      <c r="D85" s="90">
+      <c r="D85">
         <v>63</v>
       </c>
-      <c r="E85" s="90">
+      <c r="E85">
         <v>0</v>
       </c>
-      <c r="F85" s="90" t="e" cm="1">
+      <c r="F85" t="e" cm="1">
         <f t="array" ref="F85">IF(E85,C85:D85, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H85" s="90" cm="1">
+      <c r="H85" cm="1">
         <f t="array" ref="H85:I85">IF(E85=0,C85:D85,NA())</f>
         <v>37</v>
       </c>
-      <c r="I85" s="90">
+      <c r="I85">
         <v>63</v>
       </c>
-      <c r="J85" s="90">
+      <c r="J85">
         <v>37</v>
       </c>
-      <c r="K85" s="90">
+      <c r="K85">
         <f t="shared" si="1"/>
-        <v>48.169183973148733</v>
+        <v>61.978456609401746</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="90">
-        <v>1</v>
-      </c>
-      <c r="C86" s="90">
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
         <v>77</v>
       </c>
-      <c r="D86" s="90">
+      <c r="D86">
         <v>93</v>
       </c>
-      <c r="E86" s="90">
-        <v>1</v>
-      </c>
-      <c r="F86" s="90" cm="1">
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" cm="1">
         <f t="array" ref="F86:G86">IF(E86,C86:D86, NA())</f>
         <v>77</v>
       </c>
-      <c r="G86" s="90">
+      <c r="G86">
         <v>93</v>
       </c>
-      <c r="H86" s="90" t="e" cm="1">
+      <c r="H86" t="e" cm="1">
         <f t="array" ref="H86">IF(E86=0,C86:D86,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J86" s="90">
+      <c r="J86">
         <v>77</v>
       </c>
-      <c r="K86" s="90">
+      <c r="K86">
         <f t="shared" si="1"/>
-        <v>13.765995384938108</v>
+        <v>29.720083227457696</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="90">
-        <v>1</v>
-      </c>
-      <c r="C87" s="90">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
         <v>31</v>
       </c>
-      <c r="D87" s="90">
+      <c r="D87">
         <v>52</v>
       </c>
-      <c r="E87" s="90">
+      <c r="E87">
         <v>0</v>
       </c>
-      <c r="F87" s="90" t="e" cm="1">
+      <c r="F87" t="e" cm="1">
         <f t="array" ref="F87">IF(E87,C87:D87, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H87" s="90" cm="1">
+      <c r="H87" cm="1">
         <f t="array" ref="H87:I87">IF(E87=0,C87:D87,NA())</f>
         <v>31</v>
       </c>
-      <c r="I87" s="90">
+      <c r="I87">
         <v>52</v>
       </c>
-      <c r="J87" s="90">
+      <c r="J87">
         <v>31</v>
       </c>
-      <c r="K87" s="90">
+      <c r="K87">
         <f t="shared" si="1"/>
-        <v>53.329662261380321</v>
+        <v>66.817212616693354</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="90">
-        <v>1</v>
-      </c>
-      <c r="C88" s="90">
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
         <v>59</v>
       </c>
-      <c r="D88" s="90">
+      <c r="D88">
         <v>60</v>
       </c>
-      <c r="E88" s="90">
-        <v>1</v>
-      </c>
-      <c r="F88" s="90" cm="1">
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" cm="1">
         <f t="array" ref="F88:G88">IF(E88,C88:D88, NA())</f>
         <v>59</v>
       </c>
-      <c r="G88" s="90">
+      <c r="G88">
         <v>60</v>
       </c>
-      <c r="H88" s="90" t="e" cm="1">
+      <c r="H88" t="e" cm="1">
         <f t="array" ref="H88">IF(E88=0,C88:D88,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J88" s="90">
+      <c r="J88">
         <v>59</v>
       </c>
-      <c r="K88" s="90">
+      <c r="K88">
         <f t="shared" si="1"/>
-        <v>29.247430249632892</v>
+        <v>44.236351249332515</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="90">
-        <v>1</v>
-      </c>
-      <c r="C89" s="90">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
         <v>35</v>
       </c>
-      <c r="D89" s="90">
+      <c r="D89">
         <v>72</v>
       </c>
-      <c r="E89" s="90">
+      <c r="E89">
         <v>0</v>
       </c>
-      <c r="F89" s="90" t="e" cm="1">
+      <c r="F89" t="e" cm="1">
         <f t="array" ref="F89">IF(E89,C89:D89, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H89" s="90" cm="1">
+      <c r="H89" cm="1">
         <f t="array" ref="H89:I89">IF(E89=0,C89:D89,NA())</f>
         <v>35</v>
       </c>
-      <c r="I89" s="90">
+      <c r="I89">
         <v>72</v>
       </c>
-      <c r="J89" s="90">
+      <c r="J89">
         <v>35</v>
       </c>
-      <c r="K89" s="90">
+      <c r="K89">
         <f t="shared" si="1"/>
-        <v>49.889343402559263</v>
+        <v>63.591375278498951</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="90">
-        <v>1</v>
-      </c>
-      <c r="C90" s="90">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
         <v>81</v>
       </c>
-      <c r="D90" s="90">
+      <c r="D90">
         <v>42</v>
       </c>
-      <c r="E90" s="90">
-        <v>1</v>
-      </c>
-      <c r="F90" s="90" cm="1">
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" cm="1">
         <f t="array" ref="F90:G90">IF(E90,C90:D90, NA())</f>
         <v>81</v>
       </c>
-      <c r="G90" s="90">
+      <c r="G90">
         <v>42</v>
       </c>
-      <c r="H90" s="90" t="e" cm="1">
+      <c r="H90" t="e" cm="1">
         <f t="array" ref="H90">IF(E90=0,C90:D90,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J90" s="90">
+      <c r="J90">
         <v>81</v>
       </c>
-      <c r="K90" s="90">
+      <c r="K90">
         <f t="shared" si="1"/>
-        <v>10.32567652611705</v>
+        <v>26.49424588926329</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="90">
-        <v>1</v>
-      </c>
-      <c r="C91" s="90">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
         <v>83</v>
       </c>
-      <c r="D91" s="90">
+      <c r="D91">
         <v>67</v>
       </c>
-      <c r="E91" s="90">
-        <v>1</v>
-      </c>
-      <c r="F91" s="90" cm="1">
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" cm="1">
         <f t="array" ref="F91:G91">IF(E91,C91:D91, NA())</f>
         <v>83</v>
       </c>
-      <c r="G91" s="90">
+      <c r="G91">
         <v>67</v>
       </c>
-      <c r="H91" s="90" t="e" cm="1">
+      <c r="H91" t="e" cm="1">
         <f t="array" ref="H91">IF(E91=0,C91:D91,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J91" s="90">
+      <c r="J91">
         <v>83</v>
       </c>
-      <c r="K91" s="90">
+      <c r="K91">
         <f t="shared" si="1"/>
-        <v>8.6055170967065209</v>
+        <v>24.881327220166085</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="90">
-        <v>1</v>
-      </c>
-      <c r="C92" s="90">
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
         <v>77</v>
       </c>
-      <c r="D92" s="90">
+      <c r="D92">
         <v>75</v>
       </c>
-      <c r="E92" s="90">
-        <v>1</v>
-      </c>
-      <c r="F92" s="90" cm="1">
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" cm="1">
         <f t="array" ref="F92:G92">IF(E92,C92:D92, NA())</f>
         <v>77</v>
       </c>
-      <c r="G92" s="90">
+      <c r="G92">
         <v>75</v>
       </c>
-      <c r="H92" s="90" t="e" cm="1">
+      <c r="H92" t="e" cm="1">
         <f t="array" ref="H92">IF(E92=0,C92:D92,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J92" s="90">
+      <c r="J92">
         <v>77</v>
       </c>
-      <c r="K92" s="90">
+      <c r="K92">
         <f t="shared" si="1"/>
-        <v>13.765995384938108</v>
+        <v>29.720083227457696</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B93" s="90">
-        <v>1</v>
-      </c>
-      <c r="C93" s="90">
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
         <v>21</v>
       </c>
-      <c r="D93" s="90">
+      <c r="D93">
         <v>28</v>
       </c>
-      <c r="E93" s="90">
+      <c r="E93">
         <v>0</v>
       </c>
-      <c r="F93" s="90" t="e" cm="1">
+      <c r="F93" t="e" cm="1">
         <f t="array" ref="F93">IF(E93,C93:D93, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H93" s="90" cm="1">
+      <c r="H93" cm="1">
         <f t="array" ref="H93:I93">IF(E93=0,C93:D93,NA())</f>
         <v>21</v>
       </c>
-      <c r="I93" s="90">
+      <c r="I93">
         <v>28</v>
       </c>
-      <c r="J93" s="90">
+      <c r="J93">
         <v>21</v>
       </c>
-      <c r="K93" s="90">
+      <c r="K93">
         <f t="shared" si="1"/>
-        <v>61.930459408432981</v>
+        <v>74.881805962179371</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B94" s="90">
-        <v>1</v>
-      </c>
-      <c r="C94" s="90">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
         <v>59</v>
       </c>
-      <c r="D94" s="90">
+      <c r="D94">
         <v>82</v>
       </c>
-      <c r="E94" s="90">
-        <v>1</v>
-      </c>
-      <c r="F94" s="90" cm="1">
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" cm="1">
         <f t="array" ref="F94:G94">IF(E94,C94:D94, NA())</f>
         <v>59</v>
       </c>
-      <c r="G94" s="90">
+      <c r="G94">
         <v>82</v>
       </c>
-      <c r="H94" s="90" t="e" cm="1">
+      <c r="H94" t="e" cm="1">
         <f t="array" ref="H94">IF(E94=0,C94:D94,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J94" s="90">
+      <c r="J94">
         <v>59</v>
       </c>
-      <c r="K94" s="90">
+      <c r="K94">
         <f t="shared" si="1"/>
-        <v>29.247430249632892</v>
+        <v>44.236351249332515</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B95" s="90">
-        <v>1</v>
-      </c>
-      <c r="C95" s="90">
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
         <v>52</v>
       </c>
-      <c r="D95" s="90">
+      <c r="D95">
         <v>66</v>
       </c>
-      <c r="E95" s="90">
-        <v>1</v>
-      </c>
-      <c r="F95" s="90" cm="1">
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" cm="1">
         <f t="array" ref="F95:G95">IF(E95,C95:D95, NA())</f>
         <v>52</v>
       </c>
-      <c r="G95" s="90">
+      <c r="G95">
         <v>66</v>
       </c>
-      <c r="H95" s="90" t="e" cm="1">
+      <c r="H95" t="e" cm="1">
         <f t="array" ref="H95">IF(E95=0,C95:D95,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J95" s="90">
+      <c r="J95">
         <v>52</v>
       </c>
-      <c r="K95" s="90">
+      <c r="K95">
         <f t="shared" si="1"/>
-        <v>35.267988252569751</v>
+        <v>49.881566591172728</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B96" s="90">
-        <v>1</v>
-      </c>
-      <c r="C96" s="90">
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
         <v>93</v>
       </c>
-      <c r="D96" s="90">
+      <c r="D96">
         <v>90</v>
       </c>
-      <c r="E96" s="90">
-        <v>1</v>
-      </c>
-      <c r="F96" s="90" cm="1">
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" cm="1">
         <f t="array" ref="F96:G96">IF(E96,C96:D96, NA())</f>
         <v>93</v>
       </c>
-      <c r="G96" s="90">
+      <c r="G96">
         <v>90</v>
       </c>
-      <c r="H96" s="90" t="e" cm="1">
+      <c r="H96" t="e" cm="1">
         <f t="array" ref="H96">IF(E96=0,C96:D96,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J96" s="90">
+      <c r="J96">
         <v>93</v>
       </c>
-      <c r="K96" s="90">
+      <c r="K96">
         <f t="shared" si="1"/>
-        <v>4.7199496538610219E-3</v>
+        <v>16.816733874680061</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="90">
-        <v>1</v>
-      </c>
-      <c r="C97" s="90">
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
         <v>65</v>
       </c>
-      <c r="D97" s="90">
+      <c r="D97">
         <v>28</v>
       </c>
-      <c r="E97" s="90">
+      <c r="E97">
         <v>0</v>
       </c>
-      <c r="F97" s="90" t="e" cm="1">
+      <c r="F97" t="e" cm="1">
         <f t="array" ref="F97">IF(E97,C97:D97, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H97" s="90" cm="1">
+      <c r="H97" cm="1">
         <f t="array" ref="H97:I97">IF(E97=0,C97:D97,NA())</f>
         <v>65</v>
       </c>
-      <c r="I97" s="90">
+      <c r="I97">
         <v>28</v>
       </c>
-      <c r="J97" s="90">
+      <c r="J97">
         <v>65</v>
       </c>
-      <c r="K97" s="90">
+      <c r="K97">
         <f t="shared" si="1"/>
-        <v>24.086951961401297</v>
+        <v>39.397595242040914</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="90">
-        <v>1</v>
-      </c>
-      <c r="C98" s="90">
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
         <v>45</v>
       </c>
-      <c r="D98" s="90">
+      <c r="D98">
         <v>85</v>
       </c>
-      <c r="E98" s="90">
-        <v>1</v>
-      </c>
-      <c r="F98" s="90" cm="1">
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" cm="1">
         <f t="array" ref="F98:G98">IF(E98,C98:D98, NA())</f>
         <v>45</v>
       </c>
-      <c r="G98" s="90">
+      <c r="G98">
         <v>85</v>
       </c>
-      <c r="H98" s="90" t="e" cm="1">
+      <c r="H98" t="e" cm="1">
         <f t="array" ref="H98">IF(E98=0,C98:D98,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J98" s="90">
+      <c r="J98">
         <v>45</v>
       </c>
-      <c r="K98" s="90">
+      <c r="K98">
         <f t="shared" si="1"/>
-        <v>41.28854625550661</v>
+        <v>55.526781933012934</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="90">
-        <v>1</v>
-      </c>
-      <c r="C99" s="90">
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
         <v>78</v>
       </c>
-      <c r="D99" s="90">
+      <c r="D99">
         <v>85</v>
       </c>
-      <c r="E99" s="90">
-        <v>1</v>
-      </c>
-      <c r="F99" s="90" cm="1">
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" cm="1">
         <f t="array" ref="F99:G99">IF(E99,C99:D99, NA())</f>
         <v>78</v>
       </c>
-      <c r="G99" s="90">
+      <c r="G99">
         <v>85</v>
       </c>
-      <c r="H99" s="90" t="e" cm="1">
+      <c r="H99" t="e" cm="1">
         <f t="array" ref="H99">IF(E99=0,C99:D99,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J99" s="90">
+      <c r="J99">
         <v>78</v>
       </c>
-      <c r="K99" s="90">
+      <c r="K99">
         <f t="shared" si="1"/>
-        <v>12.905915670232844</v>
+        <v>28.91362389290909</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B100" s="90">
-        <v>1</v>
-      </c>
-      <c r="C100" s="90">
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
         <v>50</v>
       </c>
-      <c r="D100" s="90">
+      <c r="D100">
         <v>62</v>
       </c>
-      <c r="E100" s="90">
-        <v>1</v>
-      </c>
-      <c r="F100" s="90" cm="1">
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" cm="1">
         <f t="array" ref="F100:G100">IF(E100,C100:D100, NA())</f>
         <v>50</v>
       </c>
-      <c r="G100" s="90">
+      <c r="G100">
         <v>62</v>
       </c>
-      <c r="H100" s="90" t="e" cm="1">
+      <c r="H100" t="e" cm="1">
         <f t="array" ref="H100">IF(E100=0,C100:D100,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J100" s="90">
+      <c r="J100">
         <v>50</v>
       </c>
-      <c r="K100" s="90">
+      <c r="K100">
         <f t="shared" si="1"/>
-        <v>36.98814768198028</v>
+        <v>51.494485260269933</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B101" s="90">
-        <v>1</v>
-      </c>
-      <c r="C101" s="90">
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
         <v>91</v>
       </c>
-      <c r="D101" s="90">
+      <c r="D101">
         <v>71</v>
       </c>
-      <c r="E101" s="90">
-        <v>1</v>
-      </c>
-      <c r="F101" s="90" cm="1">
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" cm="1">
         <f t="array" ref="F101:G101">IF(E101,C101:D101, NA())</f>
         <v>91</v>
       </c>
-      <c r="G101" s="90">
+      <c r="G101">
         <v>71</v>
       </c>
-      <c r="H101" s="90" t="e" cm="1">
+      <c r="H101" t="e" cm="1">
         <f t="array" ref="H101">IF(E101=0,C101:D101,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J101" s="90">
+      <c r="J101">
         <v>91</v>
       </c>
-      <c r="K101" s="90">
+      <c r="K101">
         <f t="shared" si="1"/>
-        <v>1.7248793790643902</v>
+        <v>18.429652543777273</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B102" s="90">
-        <v>1</v>
-      </c>
-      <c r="C102" s="90">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
         <v>80</v>
       </c>
-      <c r="D102" s="90">
+      <c r="D102">
         <v>36</v>
       </c>
-      <c r="E102" s="90">
-        <v>1</v>
-      </c>
-      <c r="F102" s="90" cm="1">
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" cm="1">
         <f t="array" ref="F102:G102">IF(E102,C102:D102, NA())</f>
         <v>80</v>
       </c>
-      <c r="G102" s="90">
+      <c r="G102">
         <v>36</v>
       </c>
-      <c r="H102" s="90" t="e" cm="1">
+      <c r="H102" t="e" cm="1">
         <f t="array" ref="H102">IF(E102=0,C102:D102,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J102" s="90">
+      <c r="J102">
         <v>80</v>
       </c>
-      <c r="K102" s="90">
+      <c r="K102">
         <f t="shared" si="1"/>
-        <v>11.185756240822315</v>
+        <v>27.300705223811885</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B103" s="90">
-        <v>1</v>
-      </c>
-      <c r="C103" s="90">
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
         <v>93</v>
       </c>
-      <c r="D103" s="90">
+      <c r="D103">
         <v>61</v>
       </c>
-      <c r="E103" s="90">
-        <v>1</v>
-      </c>
-      <c r="F103" s="90" cm="1">
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" cm="1">
         <f t="array" ref="F103:G103">IF(E103,C103:D103, NA())</f>
         <v>93</v>
       </c>
-      <c r="G103" s="90">
+      <c r="G103">
         <v>61</v>
       </c>
-      <c r="H103" s="90" t="e" cm="1">
+      <c r="H103" t="e" cm="1">
         <f t="array" ref="H103">IF(E103=0,C103:D103,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J103" s="90">
+      <c r="J103">
         <v>93</v>
       </c>
-      <c r="K103" s="90">
+      <c r="K103">
         <f t="shared" si="1"/>
-        <v>4.7199496538610219E-3</v>
+        <v>16.816733874680061</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B104" s="90">
-        <v>1</v>
-      </c>
-      <c r="C104" s="90">
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
         <v>82</v>
       </c>
-      <c r="D104" s="90">
+      <c r="D104">
         <v>37</v>
       </c>
-      <c r="E104" s="90">
-        <v>1</v>
-      </c>
-      <c r="F104" s="90" cm="1">
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" cm="1">
         <f t="array" ref="F104:G104">IF(E104,C104:D104, NA())</f>
         <v>82</v>
       </c>
-      <c r="G104" s="90">
+      <c r="G104">
         <v>37</v>
       </c>
-      <c r="H104" s="90" t="e" cm="1">
+      <c r="H104" t="e" cm="1">
         <f t="array" ref="H104">IF(E104=0,C104:D104,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J104" s="90">
+      <c r="J104">
         <v>82</v>
       </c>
-      <c r="K104" s="90">
+      <c r="K104">
         <f t="shared" si="1"/>
-        <v>9.4655968114117854</v>
+        <v>25.687786554714684</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B105" s="90">
-        <v>1</v>
-      </c>
-      <c r="C105" s="90">
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
         <v>98</v>
       </c>
-      <c r="D105" s="90">
+      <c r="D105">
         <v>33</v>
       </c>
-      <c r="E105" s="90">
-        <v>1</v>
-      </c>
-      <c r="F105" s="90" cm="1">
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" cm="1">
         <f t="array" ref="F105:G105">IF(E105,C105:D105, NA())</f>
         <v>98</v>
       </c>
-      <c r="G105" s="90">
+      <c r="G105">
         <v>33</v>
       </c>
-      <c r="H105" s="90" t="e" cm="1">
+      <c r="H105" t="e" cm="1">
         <f t="array" ref="H105">IF(E105=0,C105:D105,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J105" s="90">
+      <c r="J105">
         <v>98</v>
       </c>
-      <c r="K105" s="90">
+      <c r="K105">
         <f t="shared" si="1"/>
-        <v>-4.2956786238724618</v>
+        <v>12.78443720193706</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B106" s="90">
-        <v>1</v>
-      </c>
-      <c r="C106" s="90">
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
         <v>43</v>
       </c>
-      <c r="D106" s="90">
+      <c r="D106">
         <v>57</v>
       </c>
-      <c r="E106" s="90">
-        <v>1</v>
-      </c>
-      <c r="F106" s="90" cm="1">
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" cm="1">
         <f t="array" ref="F106:G106">IF(E106,C106:D106, NA())</f>
         <v>43</v>
       </c>
-      <c r="G106" s="90">
+      <c r="G106">
         <v>57</v>
       </c>
-      <c r="H106" s="90" t="e" cm="1">
+      <c r="H106" t="e" cm="1">
         <f t="array" ref="H106">IF(E106=0,C106:D106,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J106" s="90">
+      <c r="J106">
         <v>43</v>
       </c>
-      <c r="K106" s="90">
+      <c r="K106">
         <f t="shared" si="1"/>
-        <v>43.008705684917139</v>
+        <v>57.139700602110139</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B107" s="90">
-        <v>1</v>
-      </c>
-      <c r="C107" s="90">
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
         <v>38</v>
       </c>
-      <c r="D107" s="90">
+      <c r="D107">
         <v>67</v>
       </c>
-      <c r="E107" s="90">
-        <v>1</v>
-      </c>
-      <c r="F107" s="90" cm="1">
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" cm="1">
         <f t="array" ref="F107:G107">IF(E107,C107:D107, NA())</f>
         <v>38</v>
       </c>
-      <c r="G107" s="90">
+      <c r="G107">
         <v>67</v>
       </c>
-      <c r="H107" s="90" t="e" cm="1">
+      <c r="H107" t="e" cm="1">
         <f t="array" ref="H107">IF(E107=0,C107:D107,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J107" s="90">
+      <c r="J107">
         <v>38</v>
       </c>
-      <c r="K107" s="90">
+      <c r="K107">
         <f t="shared" si="1"/>
-        <v>47.309104258443462</v>
+        <v>61.171997274853155</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B108" s="90">
-        <v>1</v>
-      </c>
-      <c r="C108" s="90">
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
         <v>56</v>
       </c>
-      <c r="D108" s="90">
+      <c r="D108">
         <v>26</v>
       </c>
-      <c r="E108" s="90">
+      <c r="E108">
         <v>0</v>
       </c>
-      <c r="F108" s="90" t="e" cm="1">
+      <c r="F108" t="e" cm="1">
         <f t="array" ref="F108">IF(E108,C108:D108, NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H108" s="90" cm="1">
+      <c r="H108" cm="1">
         <f t="array" ref="H108:I108">IF(E108=0,C108:D108,NA())</f>
         <v>56</v>
       </c>
-      <c r="I108" s="90">
+      <c r="I108">
         <v>26</v>
       </c>
-      <c r="J108" s="90">
+      <c r="J108">
         <v>56</v>
       </c>
-      <c r="K108" s="90">
+      <c r="K108">
         <f t="shared" si="1"/>
-        <v>31.827669393748685</v>
+        <v>46.655729252978325</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B109" s="90">
-        <v>1</v>
-      </c>
-      <c r="C109" s="90">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
         <v>46</v>
       </c>
-      <c r="D109" s="90">
+      <c r="D109">
         <v>98</v>
       </c>
-      <c r="E109" s="90">
-        <v>1</v>
-      </c>
-      <c r="F109" s="90" cm="1">
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" cm="1">
         <f t="array" ref="F109:G109">IF(E109,C109:D109, NA())</f>
         <v>46</v>
       </c>
-      <c r="G109" s="90">
+      <c r="G109">
         <v>98</v>
       </c>
-      <c r="H109" s="90" t="e" cm="1">
+      <c r="H109" t="e" cm="1">
         <f t="array" ref="H109">IF(E109=0,C109:D109,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J109" s="90">
+      <c r="J109">
         <v>46</v>
       </c>
-      <c r="K109" s="90">
+      <c r="K109">
         <f t="shared" si="1"/>
-        <v>40.428466540801345</v>
+        <v>54.720322598464335</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B110" s="90">
-        <v>1</v>
-      </c>
-      <c r="C110" s="90">
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
         <v>34</v>
       </c>
-      <c r="D110" s="90">
+      <c r="D110">
         <v>86</v>
       </c>
-      <c r="E110" s="90">
-        <v>1</v>
-      </c>
-      <c r="F110" s="90" cm="1">
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" cm="1">
         <f t="array" ref="F110:G110">IF(E110,C110:D110, NA())</f>
         <v>34</v>
       </c>
-      <c r="G110" s="90">
+      <c r="G110">
         <v>86</v>
       </c>
-      <c r="H110" s="90" t="e" cm="1">
+      <c r="H110" t="e" cm="1">
         <f t="array" ref="H110">IF(E110=0,C110:D110,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J110" s="90">
+      <c r="J110">
         <v>34</v>
       </c>
-      <c r="K110" s="90">
+      <c r="K110">
         <f t="shared" si="1"/>
-        <v>50.749423117264527</v>
+        <v>64.397834613047564</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B111" s="90">
-        <v>1</v>
-      </c>
-      <c r="C111" s="90">
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
         <v>52</v>
       </c>
-      <c r="D111" s="90">
+      <c r="D111">
         <v>92</v>
       </c>
-      <c r="E111" s="90">
-        <v>1</v>
-      </c>
-      <c r="F111" s="90" cm="1">
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" cm="1">
         <f t="array" ref="F111:G111">IF(E111,C111:D111, NA())</f>
         <v>52</v>
       </c>
-      <c r="G111" s="90">
+      <c r="G111">
         <v>92</v>
       </c>
-      <c r="H111" s="90" t="e" cm="1">
+      <c r="H111" t="e" cm="1">
         <f t="array" ref="H111">IF(E111=0,C111:D111,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J111" s="90">
+      <c r="J111">
         <v>52</v>
       </c>
-      <c r="K111" s="90">
+      <c r="K111">
         <f t="shared" si="1"/>
-        <v>35.267988252569751</v>
+        <v>49.881566591172728</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="90">
-        <v>1</v>
-      </c>
-      <c r="C112" s="90">
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
         <v>82</v>
       </c>
-      <c r="D112" s="90">
+      <c r="D112">
         <v>100</v>
       </c>
-      <c r="E112" s="90">
-        <v>1</v>
-      </c>
-      <c r="F112" s="90" cm="1">
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" cm="1">
         <f t="array" ref="F112:G112">IF(E112,C112:D112, NA())</f>
         <v>82</v>
       </c>
-      <c r="G112" s="90">
+      <c r="G112">
         <v>100</v>
       </c>
-      <c r="H112" s="90" t="e" cm="1">
+      <c r="H112" t="e" cm="1">
         <f t="array" ref="H112">IF(E112=0,C112:D112,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J112" s="90">
+      <c r="J112">
         <v>82</v>
       </c>
-      <c r="K112" s="90">
+      <c r="K112">
         <f t="shared" si="1"/>
-        <v>9.4655968114117854</v>
+        <v>25.687786554714684</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B113" s="90">
-        <v>1</v>
-      </c>
-      <c r="C113" s="90">
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
         <v>74</v>
       </c>
-      <c r="D113" s="90">
+      <c r="D113">
         <v>87</v>
       </c>
-      <c r="E113" s="90">
-        <v>1</v>
-      </c>
-      <c r="F113" s="90" cm="1">
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" cm="1">
         <f t="array" ref="F113:G113">IF(E113,C113:D113, NA())</f>
         <v>74</v>
       </c>
-      <c r="G113" s="90">
+      <c r="G113">
         <v>87</v>
       </c>
-      <c r="H113" s="90" t="e" cm="1">
+      <c r="H113" t="e" cm="1">
         <f t="array" ref="H113">IF(E113=0,C113:D113,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J113" s="90">
+      <c r="J113">
         <v>74</v>
       </c>
-      <c r="K113" s="90">
+      <c r="K113">
         <f t="shared" si="1"/>
-        <v>16.346234529053909</v>
+        <v>32.139461231103496</v>
       </c>
     </row>
   </sheetData>
